--- a/COVID-19 PORTUGAL.xlsx
+++ b/COVID-19 PORTUGAL.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CB847-504C-4CC4-8C48-ECB27BA9B3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F149D4-F2B5-4F20-BDE7-1505703B9C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D367909C-A6B4-446B-8CA6-61DC73BDB8E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D367909C-A6B4-446B-8CA6-61DC73BDB8E1}"/>
   </bookViews>
   <sheets>
     <sheet name="SINTESES" sheetId="2" r:id="rId1"/>
     <sheet name="DADOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DADOS!$F$1:$F$1669</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DADOS!$F$1:$F$1947</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="566">
   <si>
     <t>Concelho</t>
   </si>
@@ -1780,7 +1780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1817,6 +1817,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,7 +1842,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1859,20 +1868,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
@@ -1966,6 +1963,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17633,7 +17636,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A113912-0795-4789-80FB-53AC8467D919}" name="Tabela Dinâmica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A113912-0795-4789-80FB-53AC8467D919}" name="Tabela Dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A4:E30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
@@ -18152,14 +18155,14 @@
     <dataField name="Soma de Infetados" fld="5" baseField="0" baseItem="194"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -18259,14 +18262,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E8F8584-2265-494E-B5D2-826030F5F2DB}" name="Tabela1" displayName="Tabela1" ref="A1:F1669" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E8F8584-2265-494E-B5D2-826030F5F2DB}" name="Tabela1" displayName="Tabela1" ref="A1:F1947" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{271CACCE-1A63-42F2-8F0F-BBB35FC110A3}" name="Concelho" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5943A827-7E41-4DA1-AF3D-023E8F25835D}" name="Freguesia" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CE7AFED4-EED5-4B64-9165-69E90CD3E7C2}" name="Long" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F589027C-6F76-4829-85AF-6D62202B22D3}" name="Latitude" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{86621FD7-500D-4E09-AE60-F3E925517A33}" name="Datas" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{172F0BA0-678B-484E-8C6B-3CFE3A89C3ED}" name="Infetados" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{271CACCE-1A63-42F2-8F0F-BBB35FC110A3}" name="Concelho" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5943A827-7E41-4DA1-AF3D-023E8F25835D}" name="Freguesia" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CE7AFED4-EED5-4B64-9165-69E90CD3E7C2}" name="Long" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F589027C-6F76-4829-85AF-6D62202B22D3}" name="Latitude" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{86621FD7-500D-4E09-AE60-F3E925517A33}" name="Datas" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{172F0BA0-678B-484E-8C6B-3CFE3A89C3ED}" name="Infetados" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18572,7 +18575,7 @@
   <sheetPr codeName="Folha6"/>
   <dimension ref="A4:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -18979,10 +18982,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39378E3F-14D7-4A09-97C6-C0241A80474F}">
   <sheetPr codeName="Folha3"/>
-  <dimension ref="A1:AH1669"/>
+  <dimension ref="A1:AH1947"/>
   <sheetViews>
-    <sheetView topLeftCell="A1636" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1669" sqref="F1669"/>
+    <sheetView tabSelected="1" topLeftCell="A1674" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1694" sqref="L1694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48493,7 +48496,7 @@
       <c r="D1392" s="10">
         <v>39.499466461666302</v>
       </c>
-      <c r="E1392" s="10">
+      <c r="E1392" s="14">
         <v>43919</v>
       </c>
       <c r="F1392" s="6">
@@ -48513,7 +48516,7 @@
       <c r="D1393" s="10">
         <v>40.5742939072694</v>
       </c>
-      <c r="E1393" s="10">
+      <c r="E1393" s="14">
         <v>43919</v>
       </c>
       <c r="F1393" s="6">
@@ -48533,7 +48536,7 @@
       <c r="D1394" s="10">
         <v>40.816618572986499</v>
       </c>
-      <c r="E1394" s="10">
+      <c r="E1394" s="14">
         <v>43919</v>
       </c>
       <c r="F1394" s="6">
@@ -48553,7 +48556,7 @@
       <c r="D1395" s="10">
         <v>38.670757007693403</v>
       </c>
-      <c r="E1395" s="10">
+      <c r="E1395" s="14">
         <v>43919</v>
       </c>
       <c r="F1395" s="6">
@@ -48573,7 +48576,7 @@
       <c r="D1396" s="10">
         <v>40.692785495632897</v>
       </c>
-      <c r="E1396" s="10">
+      <c r="E1396" s="14">
         <v>43919</v>
       </c>
       <c r="F1396" s="6">
@@ -48593,7 +48596,7 @@
       <c r="D1397" s="10">
         <v>37.071906076313802</v>
       </c>
-      <c r="E1397" s="10">
+      <c r="E1397" s="14">
         <v>43919</v>
       </c>
       <c r="F1397" s="6">
@@ -48613,7 +48616,7 @@
       <c r="D1398" s="10">
         <v>38.402515076613497</v>
       </c>
-      <c r="E1398" s="10">
+      <c r="E1398" s="14">
         <v>43919</v>
       </c>
       <c r="F1398" s="6">
@@ -48633,7 +48636,7 @@
       <c r="D1399" s="10">
         <v>39.464868928433397</v>
       </c>
-      <c r="E1399" s="10">
+      <c r="E1399" s="14">
         <v>43919</v>
       </c>
       <c r="F1399" s="6">
@@ -48653,7 +48656,7 @@
       <c r="D1400" s="10">
         <v>39.417538301233499</v>
       </c>
-      <c r="E1400" s="10">
+      <c r="E1400" s="14">
         <v>43919</v>
       </c>
       <c r="F1400" s="6">
@@ -48673,7 +48676,7 @@
       <c r="D1401" s="10">
         <v>38.736052332015497</v>
       </c>
-      <c r="E1401" s="10">
+      <c r="E1401" s="14">
         <v>43919</v>
       </c>
       <c r="F1401" s="6">
@@ -48693,7 +48696,7 @@
       <c r="D1402" s="10">
         <v>37.445370491226598</v>
       </c>
-      <c r="E1402" s="10">
+      <c r="E1402" s="14">
         <v>43919</v>
       </c>
       <c r="F1402" s="6">
@@ -48713,7 +48716,7 @@
       <c r="D1403" s="10">
         <v>39.021460541684803</v>
       </c>
-      <c r="E1403" s="10">
+      <c r="E1403" s="14">
         <v>43919</v>
       </c>
       <c r="F1403" s="6">
@@ -48733,7 +48736,7 @@
       <c r="D1404" s="10">
         <v>41.346462778864797</v>
       </c>
-      <c r="E1404" s="10">
+      <c r="E1404" s="14">
         <v>43919</v>
       </c>
       <c r="F1404" s="6">
@@ -48753,7 +48756,7 @@
       <c r="D1405" s="10">
         <v>41.284210565857997</v>
       </c>
-      <c r="E1405" s="10">
+      <c r="E1405" s="14">
         <v>43919</v>
       </c>
       <c r="F1405" s="6">
@@ -48773,7 +48776,7 @@
       <c r="D1406" s="10">
         <v>37.277279085854097</v>
       </c>
-      <c r="E1406" s="10">
+      <c r="E1406" s="14">
         <v>43919</v>
       </c>
       <c r="F1406" s="6">
@@ -48793,7 +48796,7 @@
       <c r="D1407" s="10">
         <v>37.875977661184898</v>
       </c>
-      <c r="E1407" s="10">
+      <c r="E1407" s="14">
         <v>43919</v>
       </c>
       <c r="F1407" s="6">
@@ -48813,7 +48816,7 @@
       <c r="D1408" s="10">
         <v>38.675267677362797</v>
       </c>
-      <c r="E1408" s="10">
+      <c r="E1408" s="14">
         <v>43919</v>
       </c>
       <c r="F1408" s="6">
@@ -48833,7 +48836,7 @@
       <c r="D1409" s="10">
         <v>40.616246588265902</v>
       </c>
-      <c r="E1409" s="10">
+      <c r="E1409" s="14">
         <v>43919</v>
       </c>
       <c r="F1409" s="6">
@@ -48853,7 +48856,7 @@
       <c r="D1410" s="10">
         <v>39.187435633665302</v>
       </c>
-      <c r="E1410" s="10">
+      <c r="E1410" s="14">
         <v>43919</v>
       </c>
       <c r="F1410" s="6">
@@ -48873,7 +48876,7 @@
       <c r="D1411" s="10">
         <v>37.508966950304803</v>
       </c>
-      <c r="E1411" s="10">
+      <c r="E1411" s="14">
         <v>43919</v>
       </c>
       <c r="F1411" s="6">
@@ -48893,7 +48896,7 @@
       <c r="D1412" s="10">
         <v>39.241130706562501</v>
       </c>
-      <c r="E1412" s="10">
+      <c r="E1412" s="14">
         <v>43919</v>
       </c>
       <c r="F1412" s="6">
@@ -48913,7 +48916,7 @@
       <c r="D1413" s="10">
         <v>39.196019617172801</v>
       </c>
-      <c r="E1413" s="10">
+      <c r="E1413" s="14">
         <v>43919</v>
       </c>
       <c r="F1413" s="6">
@@ -48933,7 +48936,7 @@
       <c r="D1414" s="10">
         <v>39.830694949306597</v>
       </c>
-      <c r="E1414" s="10">
+      <c r="E1414" s="14">
         <v>43919</v>
       </c>
       <c r="F1414" s="6">
@@ -48953,7 +48956,7 @@
       <c r="D1415" s="10">
         <v>38.222243849869599</v>
       </c>
-      <c r="E1415" s="10">
+      <c r="E1415" s="14">
         <v>43919</v>
       </c>
       <c r="F1415" s="6">
@@ -48973,7 +48976,7 @@
       <c r="D1416" s="10">
         <v>38.777437500258401</v>
       </c>
-      <c r="E1416" s="10">
+      <c r="E1416" s="14">
         <v>43919</v>
       </c>
       <c r="F1416" s="6">
@@ -48993,7 +48996,7 @@
       <c r="D1417" s="10">
         <v>41.278181594029398</v>
       </c>
-      <c r="E1417" s="10">
+      <c r="E1417" s="14">
         <v>43919</v>
       </c>
       <c r="F1417" s="6">
@@ -49013,7 +49016,7 @@
       <c r="D1418" s="10">
         <v>41.626656495414998</v>
       </c>
-      <c r="E1418" s="10">
+      <c r="E1418" s="14">
         <v>43919</v>
       </c>
       <c r="F1418" s="6">
@@ -49033,7 +49036,7 @@
       <c r="D1419" s="10">
         <v>40.451204562791403</v>
       </c>
-      <c r="E1419" s="10">
+      <c r="E1419" s="14">
         <v>43919</v>
       </c>
       <c r="F1419" s="6">
@@ -49053,7 +49056,7 @@
       <c r="D1420" s="10">
         <v>39.937157779977497</v>
       </c>
-      <c r="E1420" s="10">
+      <c r="E1420" s="14">
         <v>43919</v>
       </c>
       <c r="F1420" s="6">
@@ -49073,7 +49076,7 @@
       <c r="D1421" s="10">
         <v>41.849026009883701</v>
       </c>
-      <c r="E1421" s="10">
+      <c r="E1421" s="14">
         <v>43919</v>
       </c>
       <c r="F1421" s="6">
@@ -49093,7 +49096,7 @@
       <c r="D1422" s="10">
         <v>40.211318186960298</v>
       </c>
-      <c r="E1422" s="10">
+      <c r="E1422" s="14">
         <v>43919</v>
       </c>
       <c r="F1422" s="6">
@@ -49113,7 +49116,7 @@
       <c r="D1423" s="10">
         <v>41.1052583978001</v>
       </c>
-      <c r="E1423" s="10">
+      <c r="E1423" s="14">
         <v>43919</v>
       </c>
       <c r="F1423" s="6">
@@ -49133,7 +49136,7 @@
       <c r="D1424" s="10">
         <v>40.925751330903203</v>
       </c>
-      <c r="E1424" s="10">
+      <c r="E1424" s="14">
         <v>43919</v>
       </c>
       <c r="F1424" s="6">
@@ -49153,7 +49156,7 @@
       <c r="D1425" s="10">
         <v>38.765406740447197</v>
       </c>
-      <c r="E1425" s="10">
+      <c r="E1425" s="14">
         <v>43919</v>
       </c>
       <c r="F1425" s="6">
@@ -49173,7 +49176,7 @@
       <c r="D1426" s="10">
         <v>39.091271834955897</v>
       </c>
-      <c r="E1426" s="10">
+      <c r="E1426" s="14">
         <v>43919</v>
       </c>
       <c r="F1426" s="6">
@@ -49193,7 +49196,7 @@
       <c r="D1427" s="10">
         <v>38.993123721875101</v>
       </c>
-      <c r="E1427" s="10">
+      <c r="E1427" s="14">
         <v>43919</v>
       </c>
       <c r="F1427" s="6">
@@ -49213,7 +49216,7 @@
       <c r="D1428" s="10">
         <v>40.669025222172102</v>
       </c>
-      <c r="E1428" s="10">
+      <c r="E1428" s="14">
         <v>43919</v>
       </c>
       <c r="F1428" s="6">
@@ -49233,7 +49236,7 @@
       <c r="D1429" s="10">
         <v>39.071488030543001</v>
       </c>
-      <c r="E1429" s="10">
+      <c r="E1429" s="14">
         <v>43919</v>
       </c>
       <c r="F1429" s="6">
@@ -49253,7 +49256,7 @@
       <c r="D1430" s="10">
         <v>39.069761316557603</v>
       </c>
-      <c r="E1430" s="10">
+      <c r="E1430" s="14">
         <v>43919</v>
       </c>
       <c r="F1430" s="6">
@@ -49273,7 +49276,7 @@
       <c r="D1431" s="10">
         <v>41.173195488473802</v>
       </c>
-      <c r="E1431" s="10">
+      <c r="E1431" s="14">
         <v>43919</v>
       </c>
       <c r="F1431" s="6">
@@ -49293,7 +49296,7 @@
       <c r="D1432" s="10">
         <v>41.544417668453796</v>
       </c>
-      <c r="E1432" s="10">
+      <c r="E1432" s="14">
         <v>43919</v>
       </c>
       <c r="F1432" s="6">
@@ -49313,7 +49316,7 @@
       <c r="D1433" s="10">
         <v>38.148188296550202</v>
       </c>
-      <c r="E1433" s="10">
+      <c r="E1433" s="14">
         <v>43919</v>
       </c>
       <c r="F1433" s="6">
@@ -49333,7 +49336,7 @@
       <c r="D1434" s="10">
         <v>38.645339872799902</v>
       </c>
-      <c r="E1434" s="10">
+      <c r="E1434" s="14">
         <v>43919</v>
       </c>
       <c r="F1434" s="6">
@@ -49353,7 +49356,7 @@
       <c r="D1435" s="10">
         <v>39.657621295304203</v>
       </c>
-      <c r="E1435" s="10">
+      <c r="E1435" s="14">
         <v>43919</v>
       </c>
       <c r="F1435" s="6">
@@ -49373,7 +49376,7 @@
       <c r="D1436" s="10">
         <v>38.011769127770897</v>
       </c>
-      <c r="E1436" s="10">
+      <c r="E1436" s="14">
         <v>43919</v>
       </c>
       <c r="F1436" s="6">
@@ -49393,7 +49396,7 @@
       <c r="D1437" s="10">
         <v>40.356839435975097</v>
       </c>
-      <c r="E1437" s="10">
+      <c r="E1437" s="14">
         <v>43919</v>
       </c>
       <c r="F1437" s="6">
@@ -49413,7 +49416,7 @@
       <c r="D1438" s="10">
         <v>38.829022935897903</v>
       </c>
-      <c r="E1438" s="10">
+      <c r="E1438" s="14">
         <v>43919</v>
       </c>
       <c r="F1438" s="6">
@@ -49433,7 +49436,7 @@
       <c r="D1439" s="10">
         <v>39.248962957735898</v>
       </c>
-      <c r="E1439" s="10">
+      <c r="E1439" s="14">
         <v>43919</v>
       </c>
       <c r="F1439" s="6">
@@ -49453,7 +49456,7 @@
       <c r="D1440" s="10">
         <v>38.806754748325403</v>
       </c>
-      <c r="E1440" s="10">
+      <c r="E1440" s="14">
         <v>43919</v>
       </c>
       <c r="F1440" s="6">
@@ -49473,7 +49476,7 @@
       <c r="D1441" s="10">
         <v>41.694126044527401</v>
       </c>
-      <c r="E1441" s="10">
+      <c r="E1441" s="14">
         <v>43919</v>
       </c>
       <c r="F1441" s="6">
@@ -49493,7 +49496,7 @@
       <c r="D1442" s="10">
         <v>41.557726269915001</v>
       </c>
-      <c r="E1442" s="10">
+      <c r="E1442" s="14">
         <v>43919</v>
       </c>
       <c r="F1442" s="6">
@@ -49513,7 +49516,7 @@
       <c r="D1443" s="10">
         <v>41.822457890710503</v>
       </c>
-      <c r="E1443" s="10">
+      <c r="E1443" s="14">
         <v>43919</v>
       </c>
       <c r="F1443" s="6">
@@ -49533,7 +49536,7 @@
       <c r="D1444" s="10">
         <v>41.514145694816797</v>
       </c>
-      <c r="E1444" s="10">
+      <c r="E1444" s="14">
         <v>43919</v>
       </c>
       <c r="F1444" s="6">
@@ -49553,7 +49556,7 @@
       <c r="D1445" s="10">
         <v>39.221936111154797</v>
       </c>
-      <c r="E1445" s="10">
+      <c r="E1445" s="14">
         <v>43919</v>
       </c>
       <c r="F1445" s="6">
@@ -49573,7 +49576,7 @@
       <c r="D1446" s="10">
         <v>39.385603826663903</v>
       </c>
-      <c r="E1446" s="10">
+      <c r="E1446" s="14">
         <v>43919</v>
       </c>
       <c r="F1446" s="6">
@@ -49593,7 +49596,7 @@
       <c r="D1447" s="10">
         <v>41.820794862629199</v>
       </c>
-      <c r="E1447" s="10">
+      <c r="E1447" s="14">
         <v>43919</v>
       </c>
       <c r="F1447" s="6">
@@ -49613,7 +49616,7 @@
       <c r="D1448" s="10">
         <v>38.9803334962481</v>
       </c>
-      <c r="E1448" s="10">
+      <c r="E1448" s="14">
         <v>43919</v>
       </c>
       <c r="F1448" s="6">
@@ -49633,7 +49636,7 @@
       <c r="D1449" s="10">
         <v>40.353888895167401</v>
       </c>
-      <c r="E1449" s="10">
+      <c r="E1449" s="14">
         <v>43919</v>
       </c>
       <c r="F1449" s="6">
@@ -49653,7 +49656,7 @@
       <c r="D1450" s="10">
         <v>41.245513668732897</v>
       </c>
-      <c r="E1450" s="10">
+      <c r="E1450" s="14">
         <v>43919</v>
       </c>
       <c r="F1450" s="6">
@@ -49673,7 +49676,7 @@
       <c r="D1451" s="10">
         <v>40.430674265108401</v>
       </c>
-      <c r="E1451" s="10">
+      <c r="E1451" s="14">
         <v>43919</v>
       </c>
       <c r="F1451" s="6">
@@ -49693,7 +49696,7 @@
       <c r="D1452" s="10">
         <v>39.165456803416397</v>
       </c>
-      <c r="E1452" s="10">
+      <c r="E1452" s="14">
         <v>43919</v>
       </c>
       <c r="F1452" s="6">
@@ -49713,7 +49716,7 @@
       <c r="D1453" s="10">
         <v>38.725958718913297</v>
       </c>
-      <c r="E1453" s="10">
+      <c r="E1453" s="14">
         <v>43919</v>
       </c>
       <c r="F1453" s="6">
@@ -49733,7 +49736,7 @@
       <c r="D1454" s="10">
         <v>40.0199488248237</v>
       </c>
-      <c r="E1454" s="10">
+      <c r="E1454" s="14">
         <v>43919</v>
       </c>
       <c r="F1454" s="6">
@@ -49753,7 +49756,7 @@
       <c r="D1455" s="10">
         <v>39.835314530536898</v>
       </c>
-      <c r="E1455" s="10">
+      <c r="E1455" s="14">
         <v>43919</v>
       </c>
       <c r="F1455" s="6">
@@ -49773,7 +49776,7 @@
       <c r="D1456" s="10">
         <v>41.0340673485235</v>
       </c>
-      <c r="E1456" s="10">
+      <c r="E1456" s="14">
         <v>43919</v>
       </c>
       <c r="F1456" s="6">
@@ -49793,7 +49796,7 @@
       <c r="D1457" s="10">
         <v>39.4562794901166</v>
       </c>
-      <c r="E1457" s="10">
+      <c r="E1457" s="14">
         <v>43919</v>
       </c>
       <c r="F1457" s="6">
@@ -49813,7 +49816,7 @@
       <c r="D1458" s="10">
         <v>40.9144473283583</v>
       </c>
-      <c r="E1458" s="10">
+      <c r="E1458" s="14">
         <v>43919</v>
       </c>
       <c r="F1458" s="6">
@@ -49833,7 +49836,7 @@
       <c r="D1459" s="10">
         <v>37.230651888795002</v>
       </c>
-      <c r="E1459" s="10">
+      <c r="E1459" s="14">
         <v>43919</v>
       </c>
       <c r="F1459" s="6">
@@ -49853,7 +49856,7 @@
       <c r="D1460" s="10">
         <v>37.712789767654897</v>
       </c>
-      <c r="E1460" s="10">
+      <c r="E1460" s="14">
         <v>43919</v>
       </c>
       <c r="F1460" s="6">
@@ -49873,7 +49876,7 @@
       <c r="D1461" s="10">
         <v>40.634308339971803</v>
       </c>
-      <c r="E1461" s="10">
+      <c r="E1461" s="14">
         <v>43919</v>
       </c>
       <c r="F1461" s="6">
@@ -49893,7 +49896,7 @@
       <c r="D1462" s="10">
         <v>41.397447613296698</v>
       </c>
-      <c r="E1462" s="10">
+      <c r="E1462" s="14">
         <v>43919</v>
       </c>
       <c r="F1462" s="6">
@@ -49913,7 +49916,7 @@
       <c r="D1463" s="10">
         <v>39.3600683701967</v>
       </c>
-      <c r="E1463" s="10">
+      <c r="E1463" s="14">
         <v>43919</v>
       </c>
       <c r="F1463" s="6">
@@ -49933,7 +49936,7 @@
       <c r="D1464" s="10">
         <v>41.7400783586316</v>
       </c>
-      <c r="E1464" s="10">
+      <c r="E1464" s="14">
         <v>43919</v>
       </c>
       <c r="F1464" s="6">
@@ -49953,7 +49956,7 @@
       <c r="D1465" s="10">
         <v>41.0565039698851</v>
       </c>
-      <c r="E1465" s="10">
+      <c r="E1465" s="14">
         <v>43919</v>
       </c>
       <c r="F1465" s="6">
@@ -49973,7 +49976,7 @@
       <c r="D1466" s="10">
         <v>40.210753988671101</v>
       </c>
-      <c r="E1466" s="10">
+      <c r="E1466" s="14">
         <v>43919</v>
       </c>
       <c r="F1466" s="6">
@@ -49993,7 +49996,7 @@
       <c r="D1467" s="10">
         <v>40.100536084158698</v>
       </c>
-      <c r="E1467" s="10">
+      <c r="E1467" s="14">
         <v>43919</v>
       </c>
       <c r="F1467" s="6">
@@ -50013,7 +50016,7 @@
       <c r="D1468" s="10">
         <v>39.404489423529</v>
       </c>
-      <c r="E1468" s="10">
+      <c r="E1468" s="14">
         <v>43919</v>
       </c>
       <c r="F1468" s="6">
@@ -50033,7 +50036,7 @@
       <c r="D1469" s="10">
         <v>38.959080131947502</v>
       </c>
-      <c r="E1469" s="10">
+      <c r="E1469" s="14">
         <v>43919</v>
       </c>
       <c r="F1469" s="6">
@@ -50053,7 +50056,7 @@
       <c r="D1470" s="10">
         <v>40.280046210918201</v>
       </c>
-      <c r="E1470" s="10">
+      <c r="E1470" s="14">
         <v>43919</v>
       </c>
       <c r="F1470" s="6">
@@ -50073,7 +50076,7 @@
       <c r="D1471" s="10">
         <v>39.290834816737203</v>
       </c>
-      <c r="E1471" s="10">
+      <c r="E1471" s="14">
         <v>43919</v>
       </c>
       <c r="F1471" s="6">
@@ -50093,7 +50096,7 @@
       <c r="D1472" s="10">
         <v>38.175705898397098</v>
       </c>
-      <c r="E1472" s="10">
+      <c r="E1472" s="14">
         <v>43919</v>
       </c>
       <c r="F1472" s="6">
@@ -50113,7 +50116,7 @@
       <c r="D1473" s="10">
         <v>38.825753810294003</v>
       </c>
-      <c r="E1473" s="10">
+      <c r="E1473" s="14">
         <v>43919</v>
       </c>
       <c r="F1473" s="6">
@@ -50133,7 +50136,7 @@
       <c r="D1474" s="10">
         <v>39.469286961551298</v>
       </c>
-      <c r="E1474" s="10">
+      <c r="E1474" s="14">
         <v>43919</v>
       </c>
       <c r="F1474" s="6">
@@ -50153,7 +50156,7 @@
       <c r="D1475" s="10">
         <v>41.0081025434148</v>
       </c>
-      <c r="E1475" s="10">
+      <c r="E1475" s="14">
         <v>43919</v>
       </c>
       <c r="F1475" s="6">
@@ -50173,7 +50176,7 @@
       <c r="D1476" s="10">
         <v>41.541807896693598</v>
       </c>
-      <c r="E1476" s="10">
+      <c r="E1476" s="14">
         <v>43919</v>
       </c>
       <c r="F1476" s="6">
@@ -50193,7 +50196,7 @@
       <c r="D1477" s="10">
         <v>40.761086038042599</v>
       </c>
-      <c r="E1477" s="10">
+      <c r="E1477" s="14">
         <v>43919</v>
       </c>
       <c r="F1477" s="6">
@@ -50213,7 +50216,7 @@
       <c r="D1478" s="10">
         <v>38.841452272741101</v>
       </c>
-      <c r="E1478" s="10">
+      <c r="E1478" s="14">
         <v>43919</v>
       </c>
       <c r="F1478" s="6">
@@ -50233,7 +50236,7 @@
       <c r="D1479" s="10">
         <v>38.549701007873601</v>
       </c>
-      <c r="E1479" s="10">
+      <c r="E1479" s="14">
         <v>43919</v>
       </c>
       <c r="F1479" s="6">
@@ -50253,7 +50256,7 @@
       <c r="D1480" s="10">
         <v>41.4496167119758</v>
       </c>
-      <c r="E1480" s="10">
+      <c r="E1480" s="14">
         <v>43919</v>
       </c>
       <c r="F1480" s="6">
@@ -50273,7 +50276,7 @@
       <c r="D1481" s="10">
         <v>37.006372236115197</v>
       </c>
-      <c r="E1481" s="10">
+      <c r="E1481" s="14">
         <v>43919</v>
       </c>
       <c r="F1481" s="6">
@@ -50293,7 +50296,7 @@
       <c r="D1482" s="10">
         <v>41.358592011986197</v>
       </c>
-      <c r="E1482" s="10">
+      <c r="E1482" s="14">
         <v>43919</v>
       </c>
       <c r="F1482" s="6">
@@ -50313,7 +50316,7 @@
       <c r="D1483" s="10">
         <v>38.041291881416697</v>
       </c>
-      <c r="E1483" s="10">
+      <c r="E1483" s="14">
         <v>43919</v>
       </c>
       <c r="F1483" s="6">
@@ -50333,7 +50336,7 @@
       <c r="D1484" s="10">
         <v>39.682316371952901</v>
       </c>
-      <c r="E1484" s="10">
+      <c r="E1484" s="14">
         <v>43919</v>
       </c>
       <c r="F1484" s="6">
@@ -50353,7 +50356,7 @@
       <c r="D1485" s="10">
         <v>40.171767891582299</v>
       </c>
-      <c r="E1485" s="10">
+      <c r="E1485" s="14">
         <v>43919</v>
       </c>
       <c r="F1485" s="6">
@@ -50373,7 +50376,7 @@
       <c r="D1486" s="10">
         <v>40.911085098511798</v>
       </c>
-      <c r="E1486" s="10">
+      <c r="E1486" s="14">
         <v>43919</v>
       </c>
       <c r="F1486" s="6">
@@ -50393,7 +50396,7 @@
       <c r="D1487" s="10">
         <v>39.886269194640597</v>
       </c>
-      <c r="E1487" s="10">
+      <c r="E1487" s="14">
         <v>43919</v>
       </c>
       <c r="F1487" s="6">
@@ -50413,7 +50416,7 @@
       <c r="D1488" s="10">
         <v>40.606377468710399</v>
       </c>
-      <c r="E1488" s="10">
+      <c r="E1488" s="14">
         <v>43919</v>
       </c>
       <c r="F1488" s="6">
@@ -50433,7 +50436,7 @@
       <c r="D1489" s="10">
         <v>41.104404997194699</v>
       </c>
-      <c r="E1489" s="10">
+      <c r="E1489" s="14">
         <v>43919</v>
       </c>
       <c r="F1489" s="6">
@@ -50453,7 +50456,7 @@
       <c r="D1490" s="10">
         <v>39.071043619515798</v>
       </c>
-      <c r="E1490" s="10">
+      <c r="E1490" s="14">
         <v>43919</v>
       </c>
       <c r="F1490" s="6">
@@ -50473,7 +50476,7 @@
       <c r="D1491" s="10">
         <v>40.154089092462399</v>
       </c>
-      <c r="E1491" s="10">
+      <c r="E1491" s="14">
         <v>43919</v>
       </c>
       <c r="F1491" s="6">
@@ -50493,7 +50496,7 @@
       <c r="D1492" s="10">
         <v>39.457293737617697</v>
       </c>
-      <c r="E1492" s="10">
+      <c r="E1492" s="14">
         <v>43919</v>
       </c>
       <c r="F1492" s="6">
@@ -50513,7 +50516,7 @@
       <c r="D1493" s="10">
         <v>40.134935396592503</v>
       </c>
-      <c r="E1493" s="10">
+      <c r="E1493" s="14">
         <v>43919</v>
       </c>
       <c r="F1493" s="6">
@@ -50533,7 +50536,7 @@
       <c r="D1494" s="10">
         <v>39.4090135038578</v>
       </c>
-      <c r="E1494" s="10">
+      <c r="E1494" s="14">
         <v>43919</v>
       </c>
       <c r="F1494" s="6">
@@ -50553,7 +50556,7 @@
       <c r="D1495" s="10">
         <v>41.179302410772998</v>
       </c>
-      <c r="E1495" s="10">
+      <c r="E1495" s="14">
         <v>43919</v>
       </c>
       <c r="F1495" s="6">
@@ -50573,7 +50576,7 @@
       <c r="D1496" s="10">
         <v>40.532254699057802</v>
       </c>
-      <c r="E1496" s="10">
+      <c r="E1496" s="14">
         <v>43919</v>
       </c>
       <c r="F1496" s="6">
@@ -50593,7 +50596,7 @@
       <c r="D1497" s="10">
         <v>38.182591564470897</v>
       </c>
-      <c r="E1497" s="10">
+      <c r="E1497" s="14">
         <v>43919</v>
       </c>
       <c r="F1497" s="6">
@@ -50613,7 +50616,7 @@
       <c r="D1498" s="10">
         <v>40.537417589893799</v>
       </c>
-      <c r="E1498" s="10">
+      <c r="E1498" s="14">
         <v>43919</v>
       </c>
       <c r="F1498" s="6">
@@ -50633,7 +50636,7 @@
       <c r="D1499" s="10">
         <v>41.438347762552297</v>
       </c>
-      <c r="E1499" s="10">
+      <c r="E1499" s="14">
         <v>43919</v>
       </c>
       <c r="F1499" s="6">
@@ -50653,7 +50656,7 @@
       <c r="D1500" s="10">
         <v>39.904527156117197</v>
       </c>
-      <c r="E1500" s="10">
+      <c r="E1500" s="14">
         <v>43919</v>
       </c>
       <c r="F1500" s="6">
@@ -50673,7 +50676,7 @@
       <c r="D1501" s="10">
         <v>40.593763765170898</v>
       </c>
-      <c r="E1501" s="10">
+      <c r="E1501" s="14">
         <v>43919</v>
       </c>
       <c r="F1501" s="6">
@@ -50693,7 +50696,7 @@
       <c r="D1502" s="10">
         <v>37.086746048961103</v>
       </c>
-      <c r="E1502" s="10">
+      <c r="E1502" s="14">
         <v>43919</v>
       </c>
       <c r="F1502" s="6">
@@ -50713,7 +50716,7 @@
       <c r="D1503" s="10">
         <v>37.079858445268101</v>
       </c>
-      <c r="E1503" s="10">
+      <c r="E1503" s="14">
         <v>43919</v>
       </c>
       <c r="F1503" s="6">
@@ -50733,7 +50736,7 @@
       <c r="D1504" s="10">
         <v>41.097892645246802</v>
       </c>
-      <c r="E1504" s="10">
+      <c r="E1504" s="14">
         <v>43919</v>
       </c>
       <c r="F1504" s="6">
@@ -50753,7 +50756,7 @@
       <c r="D1505" s="10">
         <v>39.716662274429801</v>
       </c>
-      <c r="E1505" s="10">
+      <c r="E1505" s="14">
         <v>43919</v>
       </c>
       <c r="F1505" s="6">
@@ -50773,7 +50776,7 @@
       <c r="D1506" s="10">
         <v>38.769790755098498</v>
       </c>
-      <c r="E1506" s="10">
+      <c r="E1506" s="14">
         <v>43919</v>
       </c>
       <c r="F1506" s="6">
@@ -50793,7 +50796,7 @@
       <c r="D1507" s="10">
         <v>37.090785317535698</v>
       </c>
-      <c r="E1507" s="10">
+      <c r="E1507" s="14">
         <v>43919</v>
       </c>
       <c r="F1507" s="6">
@@ -50813,7 +50816,7 @@
       <c r="D1508" s="10">
         <v>38.828585030982602</v>
       </c>
-      <c r="E1508" s="10">
+      <c r="E1508" s="14">
         <v>43919</v>
       </c>
       <c r="F1508" s="6">
@@ -50833,7 +50836,7 @@
       <c r="D1509" s="10">
         <v>39.252889632812902</v>
       </c>
-      <c r="E1509" s="10">
+      <c r="E1509" s="14">
         <v>43919</v>
       </c>
       <c r="F1509" s="6">
@@ -50853,7 +50856,7 @@
       <c r="D1510" s="10">
         <v>40.106937279097799</v>
       </c>
-      <c r="E1510" s="10">
+      <c r="E1510" s="14">
         <v>43919</v>
       </c>
       <c r="F1510" s="6">
@@ -50873,7 +50876,7 @@
       <c r="D1511" s="10">
         <v>41.277027667826999</v>
       </c>
-      <c r="E1511" s="10">
+      <c r="E1511" s="14">
         <v>43919</v>
       </c>
       <c r="F1511" s="6">
@@ -50893,7 +50896,7 @@
       <c r="D1512" s="10">
         <v>39.568663141171903</v>
       </c>
-      <c r="E1512" s="10">
+      <c r="E1512" s="14">
         <v>43919</v>
       </c>
       <c r="F1512" s="6">
@@ -50913,7 +50916,7 @@
       <c r="D1513" s="10">
         <v>41.537563048687403</v>
       </c>
-      <c r="E1513" s="10">
+      <c r="E1513" s="14">
         <v>43919</v>
       </c>
       <c r="F1513" s="6">
@@ -50933,7 +50936,7 @@
       <c r="D1514" s="10">
         <v>38.956432872075901</v>
       </c>
-      <c r="E1514" s="10">
+      <c r="E1514" s="14">
         <v>43919</v>
       </c>
       <c r="F1514" s="6">
@@ -50953,7 +50956,7 @@
       <c r="D1515" s="10">
         <v>41.229821948810397</v>
       </c>
-      <c r="E1515" s="10">
+      <c r="E1515" s="14">
         <v>43919</v>
       </c>
       <c r="F1515" s="6">
@@ -50973,7 +50976,7 @@
       <c r="D1516" s="10">
         <v>40.606816903602898</v>
       </c>
-      <c r="E1516" s="10">
+      <c r="E1516" s="14">
         <v>43919</v>
       </c>
       <c r="F1516" s="6">
@@ -50993,7 +50996,7 @@
       <c r="D1517" s="10">
         <v>40.361448896535599</v>
       </c>
-      <c r="E1517" s="10">
+      <c r="E1517" s="14">
         <v>43919</v>
       </c>
       <c r="F1517" s="6">
@@ -51013,7 +51016,7 @@
       <c r="D1518" s="10">
         <v>41.175742009538801</v>
       </c>
-      <c r="E1518" s="10">
+      <c r="E1518" s="14">
         <v>43919</v>
       </c>
       <c r="F1518" s="6">
@@ -51033,7 +51036,7 @@
       <c r="D1519" s="10">
         <v>39.768005701804299</v>
       </c>
-      <c r="E1519" s="10">
+      <c r="E1519" s="14">
         <v>43919</v>
       </c>
       <c r="F1519" s="6">
@@ -51053,7 +51056,7 @@
       <c r="D1520" s="10">
         <v>39.3593840594366</v>
       </c>
-      <c r="E1520" s="10">
+      <c r="E1520" s="14">
         <v>43919</v>
       </c>
       <c r="F1520" s="6">
@@ -51073,7 +51076,7 @@
       <c r="D1521" s="10">
         <v>41.188956619709003</v>
       </c>
-      <c r="E1521" s="10">
+      <c r="E1521" s="14">
         <v>43919</v>
       </c>
       <c r="F1521" s="6">
@@ -51093,7 +51096,7 @@
       <c r="D1522" s="10">
         <v>40.389867333143897</v>
       </c>
-      <c r="E1522" s="10">
+      <c r="E1522" s="14">
         <v>43919</v>
       </c>
       <c r="F1522" s="6">
@@ -51113,7 +51116,7 @@
       <c r="D1523" s="10">
         <v>40.8622760975109</v>
       </c>
-      <c r="E1523" s="10">
+      <c r="E1523" s="14">
         <v>43919</v>
       </c>
       <c r="F1523" s="6">
@@ -51133,7 +51136,7 @@
       <c r="D1524" s="10">
         <v>42.102078541763198</v>
       </c>
-      <c r="E1524" s="10">
+      <c r="E1524" s="14">
         <v>43919</v>
       </c>
       <c r="F1524" s="6">
@@ -51153,7 +51156,7 @@
       <c r="D1525" s="10">
         <v>37.701776363405003</v>
       </c>
-      <c r="E1525" s="10">
+      <c r="E1525" s="14">
         <v>43919</v>
       </c>
       <c r="F1525" s="6">
@@ -51173,7 +51176,7 @@
       <c r="D1526" s="10">
         <v>41.163031763827597</v>
       </c>
-      <c r="E1526" s="10">
+      <c r="E1526" s="14">
         <v>43919</v>
       </c>
       <c r="F1526" s="6">
@@ -51193,7 +51196,7 @@
       <c r="D1527" s="10">
         <v>40.414411147886099</v>
       </c>
-      <c r="E1527" s="10">
+      <c r="E1527" s="14">
         <v>43919</v>
       </c>
       <c r="F1527" s="6">
@@ -51213,7 +51216,7 @@
       <c r="D1528" s="10">
         <v>40.098029312526499</v>
       </c>
-      <c r="E1528" s="10">
+      <c r="E1528" s="14">
         <v>43919</v>
       </c>
       <c r="F1528" s="6">
@@ -51233,7 +51236,7 @@
       <c r="D1529" s="10">
         <v>41.521947590456399</v>
       </c>
-      <c r="E1529" s="10">
+      <c r="E1529" s="14">
         <v>43919</v>
       </c>
       <c r="F1529" s="6">
@@ -51253,7 +51256,7 @@
       <c r="D1530" s="10">
         <v>41.4764874174599</v>
       </c>
-      <c r="E1530" s="10">
+      <c r="E1530" s="14">
         <v>43919</v>
       </c>
       <c r="F1530" s="6">
@@ -51273,7 +51276,7 @@
       <c r="D1531" s="10">
         <v>41.3108532024007</v>
       </c>
-      <c r="E1531" s="10">
+      <c r="E1531" s="14">
         <v>43919</v>
       </c>
       <c r="F1531" s="6">
@@ -51293,7 +51296,7 @@
       <c r="D1532" s="10">
         <v>40.988851238109298</v>
       </c>
-      <c r="E1532" s="10">
+      <c r="E1532" s="14">
         <v>43919</v>
       </c>
       <c r="F1532" s="6">
@@ -51313,7 +51316,7 @@
       <c r="D1533" s="10">
         <v>38.657594009605504</v>
       </c>
-      <c r="E1533" s="10">
+      <c r="E1533" s="14">
         <v>43919</v>
       </c>
       <c r="F1533" s="6">
@@ -51333,7 +51336,7 @@
       <c r="D1534" s="10">
         <v>42.070696800563802</v>
       </c>
-      <c r="E1534" s="10">
+      <c r="E1534" s="14">
         <v>43919</v>
       </c>
       <c r="F1534" s="6">
@@ -51353,7 +51356,7 @@
       <c r="D1535" s="10">
         <v>37.328951177249003</v>
       </c>
-      <c r="E1535" s="10">
+      <c r="E1535" s="14">
         <v>43919</v>
       </c>
       <c r="F1535" s="6">
@@ -51373,7 +51376,7 @@
       <c r="D1536" s="10">
         <v>41.402395026645799</v>
       </c>
-      <c r="E1536" s="10">
+      <c r="E1536" s="14">
         <v>43919</v>
       </c>
       <c r="F1536" s="6">
@@ -51393,7 +51396,7 @@
       <c r="D1537" s="10">
         <v>39.031224679289998</v>
       </c>
-      <c r="E1537" s="10">
+      <c r="E1537" s="14">
         <v>43919</v>
       </c>
       <c r="F1537" s="6">
@@ -51413,7 +51416,7 @@
       <c r="D1538" s="10">
         <v>41.843274778997902</v>
       </c>
-      <c r="E1538" s="10">
+      <c r="E1538" s="14">
         <v>43919</v>
       </c>
       <c r="F1538" s="6">
@@ -51433,7 +51436,7 @@
       <c r="D1539" s="10">
         <v>38.662574686408199</v>
       </c>
-      <c r="E1539" s="10">
+      <c r="E1539" s="14">
         <v>43919</v>
       </c>
       <c r="F1539" s="6">
@@ -51453,7 +51456,7 @@
       <c r="D1540" s="10">
         <v>40.277233600848099</v>
       </c>
-      <c r="E1540" s="10">
+      <c r="E1540" s="14">
         <v>43919</v>
       </c>
       <c r="F1540" s="6">
@@ -51473,7 +51476,7 @@
       <c r="D1541" s="10">
         <v>38.707395779208198</v>
       </c>
-      <c r="E1541" s="10">
+      <c r="E1541" s="14">
         <v>43919</v>
       </c>
       <c r="F1541" s="6">
@@ -51493,7 +51496,7 @@
       <c r="D1542" s="10">
         <v>38.953268326200899</v>
       </c>
-      <c r="E1542" s="10">
+      <c r="E1542" s="14">
         <v>43919</v>
       </c>
       <c r="F1542" s="6">
@@ -51513,7 +51516,7 @@
       <c r="D1543" s="10">
         <v>40.379237437568399</v>
       </c>
-      <c r="E1543" s="10">
+      <c r="E1543" s="14">
         <v>43919</v>
       </c>
       <c r="F1543" s="6">
@@ -51533,7 +51536,7 @@
       <c r="D1544" s="10">
         <v>38.132137154037402</v>
       </c>
-      <c r="E1544" s="10">
+      <c r="E1544" s="14">
         <v>43919</v>
       </c>
       <c r="F1544" s="6">
@@ -51553,7 +51556,7 @@
       <c r="D1545" s="10">
         <v>38.365971703880902</v>
       </c>
-      <c r="E1545" s="10">
+      <c r="E1545" s="14">
         <v>43919</v>
       </c>
       <c r="F1545" s="6">
@@ -51573,7 +51576,7 @@
       <c r="D1546" s="10">
         <v>41.412408744631598</v>
       </c>
-      <c r="E1546" s="10">
+      <c r="E1546" s="14">
         <v>43919</v>
       </c>
       <c r="F1546" s="6">
@@ -51593,7 +51596,7 @@
       <c r="D1547" s="10">
         <v>40.736112933470999</v>
       </c>
-      <c r="E1547" s="10">
+      <c r="E1547" s="14">
         <v>43919</v>
       </c>
       <c r="F1547" s="6">
@@ -51613,7 +51616,7 @@
       <c r="D1548" s="10">
         <v>39.619499435976103</v>
       </c>
-      <c r="E1548" s="10">
+      <c r="E1548" s="14">
         <v>43919</v>
       </c>
       <c r="F1548" s="6">
@@ -51633,7 +51636,7 @@
       <c r="D1549" s="10">
         <v>40.520916299954898</v>
       </c>
-      <c r="E1549" s="10">
+      <c r="E1549" s="14">
         <v>43919</v>
       </c>
       <c r="F1549" s="6">
@@ -51653,7 +51656,7 @@
       <c r="D1550" s="10">
         <v>39.517287069770198</v>
       </c>
-      <c r="E1550" s="10">
+      <c r="E1550" s="14">
         <v>43919</v>
       </c>
       <c r="F1550" s="6">
@@ -51673,7 +51676,7 @@
       <c r="D1551" s="10">
         <v>39.368462909921199</v>
       </c>
-      <c r="E1551" s="10">
+      <c r="E1551" s="14">
         <v>43919</v>
       </c>
       <c r="F1551" s="6">
@@ -51693,7 +51696,7 @@
       <c r="D1552" s="10">
         <v>37.491913579141197</v>
       </c>
-      <c r="E1552" s="10">
+      <c r="E1552" s="14">
         <v>43919</v>
       </c>
       <c r="F1552" s="6">
@@ -51713,7 +51716,7 @@
       <c r="D1553" s="10">
         <v>38.791189576149698</v>
       </c>
-      <c r="E1553" s="10">
+      <c r="E1553" s="14">
         <v>43919</v>
       </c>
       <c r="F1553" s="6">
@@ -51733,7 +51736,7 @@
       <c r="D1554" s="10">
         <v>38.699858489269403</v>
       </c>
-      <c r="E1554" s="10">
+      <c r="E1554" s="14">
         <v>43919</v>
       </c>
       <c r="F1554" s="6">
@@ -51753,7 +51756,7 @@
       <c r="D1555" s="10">
         <v>39.926411361492903</v>
       </c>
-      <c r="E1555" s="10">
+      <c r="E1555" s="14">
         <v>43919</v>
       </c>
       <c r="F1555" s="6">
@@ -51773,7 +51776,7 @@
       <c r="D1556" s="10">
         <v>37.0476263682813</v>
       </c>
-      <c r="E1556" s="10">
+      <c r="E1556" s="14">
         <v>43919</v>
       </c>
       <c r="F1556" s="6">
@@ -51793,7 +51796,7 @@
       <c r="D1557" s="10">
         <v>40.836334414434297</v>
       </c>
-      <c r="E1557" s="10">
+      <c r="E1557" s="14">
         <v>43919</v>
       </c>
       <c r="F1557" s="6">
@@ -51813,7 +51816,7 @@
       <c r="D1558" s="10">
         <v>40.730778683931</v>
       </c>
-      <c r="E1558" s="10">
+      <c r="E1558" s="14">
         <v>43919</v>
       </c>
       <c r="F1558" s="6">
@@ -51833,7 +51836,7 @@
       <c r="D1559" s="10">
         <v>40.537437703669802</v>
       </c>
-      <c r="E1559" s="10">
+      <c r="E1559" s="14">
         <v>43919</v>
       </c>
       <c r="F1559" s="6">
@@ -51853,7 +51856,7 @@
       <c r="D1560" s="10">
         <v>40.355132586470901</v>
       </c>
-      <c r="E1560" s="10">
+      <c r="E1560" s="14">
         <v>43919</v>
       </c>
       <c r="F1560" s="6">
@@ -51873,7 +51876,7 @@
       <c r="D1561" s="10">
         <v>39.593975938903398</v>
       </c>
-      <c r="E1561" s="10">
+      <c r="E1561" s="14">
         <v>43919</v>
       </c>
       <c r="F1561" s="6">
@@ -51893,7 +51896,7 @@
       <c r="D1562" s="10">
         <v>37.644988950383699</v>
       </c>
-      <c r="E1562" s="10">
+      <c r="E1562" s="14">
         <v>43919</v>
       </c>
       <c r="F1562" s="6">
@@ -51913,7 +51916,7 @@
       <c r="D1563" s="10">
         <v>40.8649979430919</v>
       </c>
-      <c r="E1563" s="10">
+      <c r="E1563" s="14">
         <v>43919</v>
       </c>
       <c r="F1563" s="6">
@@ -51933,7 +51936,7 @@
       <c r="D1564" s="10">
         <v>41.268782155515503</v>
       </c>
-      <c r="E1564" s="10">
+      <c r="E1564" s="14">
         <v>43919</v>
       </c>
       <c r="F1564" s="6">
@@ -51953,7 +51956,7 @@
       <c r="D1565" s="10">
         <v>38.639294519269697</v>
       </c>
-      <c r="E1565" s="10">
+      <c r="E1565" s="14">
         <v>43919</v>
       </c>
       <c r="F1565" s="6">
@@ -51973,7 +51976,7 @@
       <c r="D1566" s="10">
         <v>40.054967219727303</v>
       </c>
-      <c r="E1566" s="10">
+      <c r="E1566" s="14">
         <v>43919</v>
       </c>
       <c r="F1566" s="6">
@@ -51993,7 +51996,7 @@
       <c r="D1567" s="10">
         <v>41.213589907457802</v>
       </c>
-      <c r="E1567" s="10">
+      <c r="E1567" s="14">
         <v>43919</v>
       </c>
       <c r="F1567" s="6">
@@ -52013,7 +52016,7 @@
       <c r="D1568" s="10">
         <v>41.905821580060397</v>
       </c>
-      <c r="E1568" s="10">
+      <c r="E1568" s="14">
         <v>43919</v>
       </c>
       <c r="F1568" s="6">
@@ -52033,7 +52036,7 @@
       <c r="D1569" s="10">
         <v>39.949234423417401</v>
       </c>
-      <c r="E1569" s="10">
+      <c r="E1569" s="14">
         <v>43919</v>
       </c>
       <c r="F1569" s="6">
@@ -52053,7 +52056,7 @@
       <c r="D1570" s="10">
         <v>40.250669246954899</v>
       </c>
-      <c r="E1570" s="10">
+      <c r="E1570" s="14">
         <v>43919</v>
       </c>
       <c r="F1570" s="6">
@@ -52073,7 +52076,7 @@
       <c r="D1571" s="10">
         <v>41.2035741487393</v>
       </c>
-      <c r="E1571" s="10">
+      <c r="E1571" s="14">
         <v>43919</v>
       </c>
       <c r="F1571" s="6">
@@ -52093,7 +52096,7 @@
       <c r="D1572" s="10">
         <v>40.675092122079398</v>
       </c>
-      <c r="E1572" s="10">
+      <c r="E1572" s="14">
         <v>43919</v>
       </c>
       <c r="F1572" s="6">
@@ -52113,7 +52116,7 @@
       <c r="D1573" s="10">
         <v>40.1716185503291</v>
       </c>
-      <c r="E1573" s="10">
+      <c r="E1573" s="14">
         <v>43919</v>
       </c>
       <c r="F1573" s="6">
@@ -52133,7 +52136,7 @@
       <c r="D1574" s="10">
         <v>40.991293392028297</v>
       </c>
-      <c r="E1574" s="10">
+      <c r="E1574" s="14">
         <v>43919</v>
       </c>
       <c r="F1574" s="6">
@@ -52153,7 +52156,7 @@
       <c r="D1575" s="10">
         <v>40.016599428956802</v>
       </c>
-      <c r="E1575" s="10">
+      <c r="E1575" s="14">
         <v>43919</v>
       </c>
       <c r="F1575" s="6">
@@ -52173,7 +52176,7 @@
       <c r="D1576" s="10">
         <v>39.360435694331102</v>
       </c>
-      <c r="E1576" s="10">
+      <c r="E1576" s="14">
         <v>43919</v>
       </c>
       <c r="F1576" s="6">
@@ -52193,7 +52196,7 @@
       <c r="D1577" s="10">
         <v>41.1670941882386</v>
       </c>
-      <c r="E1577" s="10">
+      <c r="E1577" s="14">
         <v>43919</v>
       </c>
       <c r="F1577" s="6">
@@ -52213,7 +52216,7 @@
       <c r="D1578" s="10">
         <v>40.779496515985898</v>
       </c>
-      <c r="E1578" s="10">
+      <c r="E1578" s="14">
         <v>43919</v>
       </c>
       <c r="F1578" s="6">
@@ -52233,7 +52236,7 @@
       <c r="D1579" s="10">
         <v>39.913921328534499</v>
       </c>
-      <c r="E1579" s="10">
+      <c r="E1579" s="14">
         <v>43919</v>
       </c>
       <c r="F1579" s="6">
@@ -52253,7 +52256,7 @@
       <c r="D1580" s="10">
         <v>41.801513305785697</v>
       </c>
-      <c r="E1580" s="10">
+      <c r="E1580" s="14">
         <v>43919</v>
       </c>
       <c r="F1580" s="6">
@@ -52273,7 +52276,7 @@
       <c r="D1581" s="10">
         <v>41.761526014748</v>
       </c>
-      <c r="E1581" s="10">
+      <c r="E1581" s="14">
         <v>43919</v>
       </c>
       <c r="F1581" s="6">
@@ -52293,7 +52296,7 @@
       <c r="D1582" s="10">
         <v>39.2592415407034</v>
       </c>
-      <c r="E1582" s="10">
+      <c r="E1582" s="14">
         <v>43919</v>
       </c>
       <c r="F1582" s="6">
@@ -52313,7 +52316,7 @@
       <c r="D1583" s="10">
         <v>39.290952045325</v>
       </c>
-      <c r="E1583" s="10">
+      <c r="E1583" s="14">
         <v>43919</v>
       </c>
       <c r="F1583" s="6">
@@ -52333,7 +52336,7 @@
       <c r="D1584" s="10">
         <v>38.303434529284203</v>
       </c>
-      <c r="E1584" s="10">
+      <c r="E1584" s="14">
         <v>43919</v>
       </c>
       <c r="F1584" s="6">
@@ -52353,7 +52356,7 @@
       <c r="D1585" s="10">
         <v>37.183837172142802</v>
       </c>
-      <c r="E1585" s="10">
+      <c r="E1585" s="14">
         <v>43919</v>
       </c>
       <c r="F1585" s="6">
@@ -52373,7 +52376,7 @@
       <c r="D1586" s="10">
         <v>41.174247522807804</v>
       </c>
-      <c r="E1586" s="10">
+      <c r="E1586" s="14">
         <v>43919</v>
       </c>
       <c r="F1586" s="6">
@@ -52393,7 +52396,7 @@
       <c r="D1587" s="10">
         <v>39.617092578911098</v>
       </c>
-      <c r="E1587" s="10">
+      <c r="E1587" s="14">
         <v>43919</v>
       </c>
       <c r="F1587" s="6">
@@ -52413,7 +52416,7 @@
       <c r="D1588" s="10">
         <v>41.577970851150504</v>
       </c>
-      <c r="E1588" s="10">
+      <c r="E1588" s="14">
         <v>43919</v>
       </c>
       <c r="F1588" s="6">
@@ -52433,7 +52436,7 @@
       <c r="D1589" s="10">
         <v>41.385552798280102</v>
       </c>
-      <c r="E1589" s="10">
+      <c r="E1589" s="14">
         <v>43919</v>
       </c>
       <c r="F1589" s="6">
@@ -52453,7 +52456,7 @@
       <c r="D1590" s="10">
         <v>39.728832555886797</v>
       </c>
-      <c r="E1590" s="10">
+      <c r="E1590" s="14">
         <v>43919</v>
       </c>
       <c r="F1590" s="6">
@@ -52473,7 +52476,7 @@
       <c r="D1591" s="10">
         <v>38.6481340084921</v>
       </c>
-      <c r="E1591" s="10">
+      <c r="E1591" s="14">
         <v>43919</v>
       </c>
       <c r="F1591" s="6">
@@ -52493,7 +52496,7 @@
       <c r="D1592" s="10">
         <v>38.418701778305902</v>
       </c>
-      <c r="E1592" s="10">
+      <c r="E1592" s="14">
         <v>43919</v>
       </c>
       <c r="F1592" s="6">
@@ -52513,7 +52516,7 @@
       <c r="D1593" s="10">
         <v>41.102422138664501</v>
       </c>
-      <c r="E1593" s="10">
+      <c r="E1593" s="14">
         <v>43919</v>
       </c>
       <c r="F1593" s="6">
@@ -52533,7 +52536,7 @@
       <c r="D1594" s="10">
         <v>41.516687161077201</v>
       </c>
-      <c r="E1594" s="10">
+      <c r="E1594" s="14">
         <v>43919</v>
       </c>
       <c r="F1594" s="6">
@@ -52553,7 +52556,7 @@
       <c r="D1595" s="10">
         <v>39.338143681549603</v>
       </c>
-      <c r="E1595" s="10">
+      <c r="E1595" s="14">
         <v>43919</v>
       </c>
       <c r="F1595" s="6">
@@ -52573,7 +52576,7 @@
       <c r="D1596" s="10">
         <v>41.268681564346103</v>
       </c>
-      <c r="E1596" s="10">
+      <c r="E1596" s="14">
         <v>43919</v>
       </c>
       <c r="F1596" s="6">
@@ -52593,7 +52596,7 @@
       <c r="D1597" s="10">
         <v>40.3393434365681</v>
       </c>
-      <c r="E1597" s="10">
+      <c r="E1597" s="14">
         <v>43919</v>
       </c>
       <c r="F1597" s="6">
@@ -52613,7 +52616,7 @@
       <c r="D1598" s="10">
         <v>39.014470629446301</v>
       </c>
-      <c r="E1598" s="10">
+      <c r="E1598" s="14">
         <v>43919</v>
       </c>
       <c r="F1598" s="6">
@@ -52633,7 +52636,7 @@
       <c r="D1599" s="10">
         <v>40.408219732805698</v>
       </c>
-      <c r="E1599" s="10">
+      <c r="E1599" s="14">
         <v>43919</v>
       </c>
       <c r="F1599" s="6">
@@ -52653,7 +52656,7 @@
       <c r="D1600" s="10">
         <v>40.909536634615499</v>
       </c>
-      <c r="E1600" s="10">
+      <c r="E1600" s="14">
         <v>43919</v>
       </c>
       <c r="F1600" s="6">
@@ -52673,7 +52676,7 @@
       <c r="D1601" s="10">
         <v>41.198531053878298</v>
       </c>
-      <c r="E1601" s="10">
+      <c r="E1601" s="14">
         <v>43919</v>
       </c>
       <c r="F1601" s="6">
@@ -52693,7 +52696,7 @@
       <c r="D1602" s="10">
         <v>39.238096028394303</v>
       </c>
-      <c r="E1602" s="10">
+      <c r="E1602" s="14">
         <v>43919</v>
       </c>
       <c r="F1602" s="6">
@@ -52713,7 +52716,7 @@
       <c r="D1603" s="10">
         <v>38.068000118054698</v>
       </c>
-      <c r="E1603" s="10">
+      <c r="E1603" s="14">
         <v>43919</v>
       </c>
       <c r="F1603" s="6">
@@ -52733,7 +52736,7 @@
       <c r="D1604" s="10">
         <v>41.351181982911598</v>
       </c>
-      <c r="E1604" s="10">
+      <c r="E1604" s="14">
         <v>43919</v>
       </c>
       <c r="F1604" s="6">
@@ -52753,7 +52756,7 @@
       <c r="D1605" s="10">
         <v>37.195683792874298</v>
       </c>
-      <c r="E1605" s="10">
+      <c r="E1605" s="14">
         <v>43919</v>
       </c>
       <c r="F1605" s="6">
@@ -52773,7 +52776,7 @@
       <c r="D1606" s="10">
         <v>40.895631508228803</v>
       </c>
-      <c r="E1606" s="10">
+      <c r="E1606" s="14">
         <v>43919</v>
       </c>
       <c r="F1606" s="6">
@@ -52793,7 +52796,7 @@
       <c r="D1607" s="10">
         <v>41.136708094045098</v>
       </c>
-      <c r="E1607" s="10">
+      <c r="E1607" s="14">
         <v>43919</v>
       </c>
       <c r="F1607" s="6">
@@ -52813,7 +52816,7 @@
       <c r="D1608" s="10">
         <v>40.756654451289499</v>
       </c>
-      <c r="E1608" s="10">
+      <c r="E1608" s="14">
         <v>43919</v>
       </c>
       <c r="F1608" s="6">
@@ -52833,7 +52836,7 @@
       <c r="D1609" s="10">
         <v>39.542479499695403</v>
       </c>
-      <c r="E1609" s="10">
+      <c r="E1609" s="14">
         <v>43919</v>
       </c>
       <c r="F1609" s="6">
@@ -52853,7 +52856,7 @@
       <c r="D1610" s="10">
         <v>40.748882275913999</v>
       </c>
-      <c r="E1610" s="10">
+      <c r="E1610" s="14">
         <v>43919</v>
       </c>
       <c r="F1610" s="6">
@@ -52873,7 +52876,7 @@
       <c r="D1611" s="10">
         <v>40.399317421940303</v>
       </c>
-      <c r="E1611" s="10">
+      <c r="E1611" s="14">
         <v>43919</v>
       </c>
       <c r="F1611" s="6">
@@ -52893,7 +52896,7 @@
       <c r="D1612" s="10">
         <v>38.613917224409299</v>
       </c>
-      <c r="E1612" s="10">
+      <c r="E1612" s="14">
         <v>43919</v>
       </c>
       <c r="F1612" s="6">
@@ -52913,7 +52916,7 @@
       <c r="D1613" s="10">
         <v>40.896740866144697</v>
       </c>
-      <c r="E1613" s="10">
+      <c r="E1613" s="14">
         <v>43919</v>
       </c>
       <c r="F1613" s="6">
@@ -52933,7 +52936,7 @@
       <c r="D1614" s="10">
         <v>37.885920010674198</v>
       </c>
-      <c r="E1614" s="10">
+      <c r="E1614" s="14">
         <v>43919</v>
       </c>
       <c r="F1614" s="6">
@@ -52953,7 +52956,7 @@
       <c r="D1615" s="10">
         <v>39.824425062199502</v>
       </c>
-      <c r="E1615" s="10">
+      <c r="E1615" s="14">
         <v>43919</v>
       </c>
       <c r="F1615" s="6">
@@ -52973,7 +52976,7 @@
       <c r="D1616" s="10">
         <v>38.552008083120597</v>
       </c>
-      <c r="E1616" s="10">
+      <c r="E1616" s="14">
         <v>43919</v>
       </c>
       <c r="F1616" s="6">
@@ -52993,7 +52996,7 @@
       <c r="D1617" s="10">
         <v>38.527225086723597</v>
       </c>
-      <c r="E1617" s="10">
+      <c r="E1617" s="14">
         <v>43919</v>
       </c>
       <c r="F1617" s="6">
@@ -53013,7 +53016,7 @@
       <c r="D1618" s="10">
         <v>40.731116039588798</v>
       </c>
-      <c r="E1618" s="10">
+      <c r="E1618" s="14">
         <v>43919</v>
       </c>
       <c r="F1618" s="6">
@@ -53033,7 +53036,7 @@
       <c r="D1619" s="10">
         <v>37.220814126970303</v>
       </c>
-      <c r="E1619" s="10">
+      <c r="E1619" s="14">
         <v>43919</v>
       </c>
       <c r="F1619" s="6">
@@ -53053,7 +53056,7 @@
       <c r="D1620" s="10">
         <v>37.957613671581598</v>
       </c>
-      <c r="E1620" s="10">
+      <c r="E1620" s="14">
         <v>43919</v>
       </c>
       <c r="F1620" s="6">
@@ -53073,7 +53076,7 @@
       <c r="D1621" s="10">
         <v>38.805379302335503</v>
       </c>
-      <c r="E1621" s="10">
+      <c r="E1621" s="14">
         <v>43919</v>
       </c>
       <c r="F1621" s="6">
@@ -53093,7 +53096,7 @@
       <c r="D1622" s="10">
         <v>39.002930163433</v>
       </c>
-      <c r="E1622" s="10">
+      <c r="E1622" s="14">
         <v>43919</v>
       </c>
       <c r="F1622" s="6">
@@ -53113,7 +53116,7 @@
       <c r="D1623" s="10">
         <v>40.053098121073504</v>
       </c>
-      <c r="E1623" s="10">
+      <c r="E1623" s="14">
         <v>43919</v>
       </c>
       <c r="F1623" s="6">
@@ -53133,7 +53136,7 @@
       <c r="D1624" s="10">
         <v>38.965485262805103</v>
       </c>
-      <c r="E1624" s="10">
+      <c r="E1624" s="14">
         <v>43919</v>
       </c>
       <c r="F1624" s="6">
@@ -53153,7 +53156,7 @@
       <c r="D1625" s="10">
         <v>40.363237318563002</v>
       </c>
-      <c r="E1625" s="10">
+      <c r="E1625" s="14">
         <v>43919</v>
       </c>
       <c r="F1625" s="6">
@@ -53173,7 +53176,7 @@
       <c r="D1626" s="10">
         <v>41.113836559379699</v>
       </c>
-      <c r="E1626" s="10">
+      <c r="E1626" s="14">
         <v>43919</v>
       </c>
       <c r="F1626" s="6">
@@ -53193,7 +53196,7 @@
       <c r="D1627" s="10">
         <v>41.015194321182499</v>
       </c>
-      <c r="E1627" s="10">
+      <c r="E1627" s="14">
         <v>43919</v>
       </c>
       <c r="F1627" s="6">
@@ -53213,7 +53216,7 @@
       <c r="D1628" s="10">
         <v>37.195225314007203</v>
       </c>
-      <c r="E1628" s="10">
+      <c r="E1628" s="14">
         <v>43919</v>
       </c>
       <c r="F1628" s="6">
@@ -53233,7 +53236,7 @@
       <c r="D1629" s="10">
         <v>41.731689074247498</v>
       </c>
-      <c r="E1629" s="10">
+      <c r="E1629" s="14">
         <v>43919</v>
       </c>
       <c r="F1629" s="6">
@@ -53253,7 +53256,7 @@
       <c r="D1630" s="10">
         <v>39.598324048574703</v>
       </c>
-      <c r="E1630" s="10">
+      <c r="E1630" s="14">
         <v>43919</v>
       </c>
       <c r="F1630" s="6">
@@ -53273,7 +53276,7 @@
       <c r="D1631" s="10">
         <v>40.519582393695103</v>
       </c>
-      <c r="E1631" s="10">
+      <c r="E1631" s="14">
         <v>43919</v>
       </c>
       <c r="F1631" s="6">
@@ -53293,7 +53296,7 @@
       <c r="D1632" s="10">
         <v>41.179185975559598</v>
       </c>
-      <c r="E1632" s="10">
+      <c r="E1632" s="14">
         <v>43919</v>
       </c>
       <c r="F1632" s="6">
@@ -53313,7 +53316,7 @@
       <c r="D1633" s="10">
         <v>39.497878359608002</v>
       </c>
-      <c r="E1633" s="10">
+      <c r="E1633" s="14">
         <v>43919</v>
       </c>
       <c r="F1633" s="6">
@@ -53333,7 +53336,7 @@
       <c r="D1634" s="10">
         <v>39.1355872267563</v>
       </c>
-      <c r="E1634" s="10">
+      <c r="E1634" s="14">
         <v>43919</v>
       </c>
       <c r="F1634" s="6">
@@ -53353,7 +53356,7 @@
       <c r="D1635" s="10">
         <v>40.7816977292795</v>
       </c>
-      <c r="E1635" s="10">
+      <c r="E1635" s="14">
         <v>43919</v>
       </c>
       <c r="F1635" s="6">
@@ -53373,7 +53376,7 @@
       <c r="D1636" s="10">
         <v>41.329535549936999</v>
       </c>
-      <c r="E1636" s="10">
+      <c r="E1636" s="14">
         <v>43919</v>
       </c>
       <c r="F1636" s="6">
@@ -53393,7 +53396,7 @@
       <c r="D1637" s="10">
         <v>40.545380574482699</v>
       </c>
-      <c r="E1637" s="10">
+      <c r="E1637" s="14">
         <v>43919</v>
       </c>
       <c r="F1637" s="6">
@@ -53413,7 +53416,7 @@
       <c r="D1638" s="10">
         <v>40.815821036550801</v>
       </c>
-      <c r="E1638" s="10">
+      <c r="E1638" s="14">
         <v>43919</v>
       </c>
       <c r="F1638" s="6">
@@ -53433,7 +53436,7 @@
       <c r="D1639" s="10">
         <v>42.018187937881997</v>
       </c>
-      <c r="E1639" s="10">
+      <c r="E1639" s="14">
         <v>43919</v>
       </c>
       <c r="F1639" s="6">
@@ -53453,7 +53456,7 @@
       <c r="D1640" s="10">
         <v>41.216019867702698</v>
       </c>
-      <c r="E1640" s="10">
+      <c r="E1640" s="14">
         <v>43919</v>
       </c>
       <c r="F1640" s="6">
@@ -53473,7 +53476,7 @@
       <c r="D1641" s="10">
         <v>41.600577816625403</v>
       </c>
-      <c r="E1641" s="10">
+      <c r="E1641" s="14">
         <v>43919</v>
       </c>
       <c r="F1641" s="6">
@@ -53493,7 +53496,7 @@
       <c r="D1642" s="10">
         <v>38.679306974978701</v>
       </c>
-      <c r="E1642" s="10">
+      <c r="E1642" s="14">
         <v>43919</v>
       </c>
       <c r="F1642" s="6">
@@ -53513,7 +53516,7 @@
       <c r="D1643" s="10">
         <v>38.340209984207</v>
       </c>
-      <c r="E1643" s="10">
+      <c r="E1643" s="14">
         <v>43919</v>
       </c>
       <c r="F1643" s="6">
@@ -53533,7 +53536,7 @@
       <c r="D1644" s="10">
         <v>41.703881812905301</v>
       </c>
-      <c r="E1644" s="10">
+      <c r="E1644" s="14">
         <v>43919</v>
       </c>
       <c r="F1644" s="6">
@@ -53553,7 +53556,7 @@
       <c r="D1645" s="10">
         <v>38.2181400443475</v>
       </c>
-      <c r="E1645" s="10">
+      <c r="E1645" s="14">
         <v>43919</v>
       </c>
       <c r="F1645" s="6">
@@ -53573,7 +53576,7 @@
       <c r="D1646" s="10">
         <v>41.621424287096801</v>
       </c>
-      <c r="E1646" s="10">
+      <c r="E1646" s="14">
         <v>43919</v>
       </c>
       <c r="F1646" s="6">
@@ -53593,7 +53596,7 @@
       <c r="D1647" s="10">
         <v>39.6684201016283</v>
       </c>
-      <c r="E1647" s="10">
+      <c r="E1647" s="14">
         <v>43919</v>
       </c>
       <c r="F1647" s="6">
@@ -53613,7 +53616,7 @@
       <c r="D1648" s="10">
         <v>37.014702253437001</v>
       </c>
-      <c r="E1648" s="10">
+      <c r="E1648" s="14">
         <v>43919</v>
       </c>
       <c r="F1648" s="6">
@@ -53633,7 +53636,7 @@
       <c r="D1649" s="10">
         <v>41.359468449624799</v>
       </c>
-      <c r="E1649" s="10">
+      <c r="E1649" s="14">
         <v>43919</v>
       </c>
       <c r="F1649" s="6">
@@ -53653,7 +53656,7 @@
       <c r="D1650" s="10">
         <v>41.280008586463197</v>
       </c>
-      <c r="E1650" s="10">
+      <c r="E1650" s="14">
         <v>43919</v>
       </c>
       <c r="F1650" s="6">
@@ -53673,7 +53676,7 @@
       <c r="D1651" s="10">
         <v>38.865665589323299</v>
       </c>
-      <c r="E1651" s="10">
+      <c r="E1651" s="14">
         <v>43919</v>
       </c>
       <c r="F1651" s="6">
@@ -53693,7 +53696,7 @@
       <c r="D1652" s="10">
         <v>39.467655496247502</v>
       </c>
-      <c r="E1652" s="10">
+      <c r="E1652" s="14">
         <v>43919</v>
       </c>
       <c r="F1652" s="6">
@@ -53713,7 +53716,7 @@
       <c r="D1653" s="10">
         <v>41.944829812427699</v>
       </c>
-      <c r="E1653" s="10">
+      <c r="E1653" s="14">
         <v>43919</v>
       </c>
       <c r="F1653" s="6">
@@ -53733,7 +53736,7 @@
       <c r="D1654" s="10">
         <v>41.398780119379197</v>
       </c>
-      <c r="E1654" s="10">
+      <c r="E1654" s="14">
         <v>43919</v>
       </c>
       <c r="F1654" s="6">
@@ -53753,7 +53756,7 @@
       <c r="D1655" s="10">
         <v>41.102233885436398</v>
       </c>
-      <c r="E1655" s="10">
+      <c r="E1655" s="14">
         <v>43919</v>
       </c>
       <c r="F1655" s="6">
@@ -53773,7 +53776,7 @@
       <c r="D1656" s="10">
         <v>41.107184289019202</v>
       </c>
-      <c r="E1656" s="10">
+      <c r="E1656" s="14">
         <v>43919</v>
       </c>
       <c r="F1656" s="6">
@@ -53793,7 +53796,7 @@
       <c r="D1657" s="10">
         <v>40.848820734037801</v>
       </c>
-      <c r="E1657" s="10">
+      <c r="E1657" s="14">
         <v>43919</v>
       </c>
       <c r="F1657" s="6">
@@ -53813,7 +53816,7 @@
       <c r="D1658" s="10">
         <v>40.204872326194298</v>
       </c>
-      <c r="E1658" s="10">
+      <c r="E1658" s="14">
         <v>43919</v>
       </c>
       <c r="F1658" s="6">
@@ -53833,7 +53836,7 @@
       <c r="D1659" s="10">
         <v>41.502313102390403</v>
       </c>
-      <c r="E1659" s="10">
+      <c r="E1659" s="14">
         <v>43919</v>
       </c>
       <c r="F1659" s="6">
@@ -53853,7 +53856,7 @@
       <c r="D1660" s="10">
         <v>41.302671871192203</v>
       </c>
-      <c r="E1660" s="10">
+      <c r="E1660" s="14">
         <v>43919</v>
       </c>
       <c r="F1660" s="6">
@@ -53873,7 +53876,7 @@
       <c r="D1661" s="10">
         <v>37.188246355255302</v>
       </c>
-      <c r="E1661" s="10">
+      <c r="E1661" s="14">
         <v>43919</v>
       </c>
       <c r="F1661" s="6">
@@ -53893,7 +53896,7 @@
       <c r="D1662" s="10">
         <v>39.682066225399701</v>
       </c>
-      <c r="E1662" s="10">
+      <c r="E1662" s="14">
         <v>43919</v>
       </c>
       <c r="F1662" s="6">
@@ -53913,7 +53916,7 @@
       <c r="D1663" s="10">
         <v>41.647592452474001</v>
       </c>
-      <c r="E1663" s="10">
+      <c r="E1663" s="14">
         <v>43919</v>
       </c>
       <c r="F1663" s="6">
@@ -53933,7 +53936,7 @@
       <c r="D1664" s="10">
         <v>38.772219236307102</v>
       </c>
-      <c r="E1664" s="10">
+      <c r="E1664" s="14">
         <v>43919</v>
       </c>
       <c r="F1664" s="6">
@@ -53953,7 +53956,7 @@
       <c r="D1665" s="10">
         <v>41.582023089350102</v>
       </c>
-      <c r="E1665" s="10">
+      <c r="E1665" s="14">
         <v>43919</v>
       </c>
       <c r="F1665" s="6">
@@ -53973,7 +53976,7 @@
       <c r="D1666" s="10">
         <v>41.82428434781</v>
       </c>
-      <c r="E1666" s="10">
+      <c r="E1666" s="14">
         <v>43919</v>
       </c>
       <c r="F1666" s="6">
@@ -53993,7 +53996,7 @@
       <c r="D1667" s="10">
         <v>40.661514034353402</v>
       </c>
-      <c r="E1667" s="10">
+      <c r="E1667" s="14">
         <v>43919</v>
       </c>
       <c r="F1667" s="6">
@@ -54013,7 +54016,7 @@
       <c r="D1668" s="10">
         <v>41.382765464286699</v>
       </c>
-      <c r="E1668" s="10">
+      <c r="E1668" s="14">
         <v>43919</v>
       </c>
       <c r="F1668" s="6">
@@ -54033,10 +54036,5570 @@
       <c r="D1669" s="10">
         <v>40.713797852987703</v>
       </c>
-      <c r="E1669" s="10">
+      <c r="E1669" s="14">
         <v>43919</v>
       </c>
       <c r="F1669" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1670" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1670" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1670" s="4">
+        <v>-8.1951121938921894</v>
+      </c>
+      <c r="D1670" s="10">
+        <v>39.499466461666302</v>
+      </c>
+      <c r="E1670" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1670" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1671" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1671" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1671" s="4">
+        <v>-8.4166620666488701</v>
+      </c>
+      <c r="D1671" s="10">
+        <v>40.5742939072694</v>
+      </c>
+      <c r="E1671" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1671" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1672" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1672" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1672" s="4">
+        <v>-7.5542710599354503</v>
+      </c>
+      <c r="D1672" s="10">
+        <v>40.816618572986499</v>
+      </c>
+      <c r="E1672" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1672" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1673" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1673" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1673" s="4">
+        <v>-7.3391429216111996</v>
+      </c>
+      <c r="D1673" s="10">
+        <v>38.670757007693403</v>
+      </c>
+      <c r="E1673" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1673" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1674" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1674" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1674" s="4">
+        <v>-8.47968673574454</v>
+      </c>
+      <c r="D1674" s="10">
+        <v>40.692785495632897</v>
+      </c>
+      <c r="E1674" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1674" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1675" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1675" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1675" s="4">
+        <v>-8.2873855866767805</v>
+      </c>
+      <c r="D1675" s="10">
+        <v>37.071906076313802</v>
+      </c>
+      <c r="E1675" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1675" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1676" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1676" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1676" s="4">
+        <v>-8.5137322028057394</v>
+      </c>
+      <c r="D1676" s="10">
+        <v>38.402515076613497</v>
+      </c>
+      <c r="E1676" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1676" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1677" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1677" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1677" s="4">
+        <v>-8.6692205135658291</v>
+      </c>
+      <c r="D1677" s="10">
+        <v>39.464868928433397</v>
+      </c>
+      <c r="E1677" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1677" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1678" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1678" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1678" s="4">
+        <v>-8.9667929412893503</v>
+      </c>
+      <c r="D1678" s="10">
+        <v>39.417538301233499</v>
+      </c>
+      <c r="E1678" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1678" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1679" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1679" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1679" s="4">
+        <v>-8.9102696139189703</v>
+      </c>
+      <c r="D1679" s="10">
+        <v>38.736052332015497</v>
+      </c>
+      <c r="E1679" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1679" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1680" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1680" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1680" s="4">
+        <v>-7.5441112384330902</v>
+      </c>
+      <c r="D1680" s="10">
+        <v>37.445370491226598</v>
+      </c>
+      <c r="E1680" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1680" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1681" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1681" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1681" s="4">
+        <v>-8.9799911725651498</v>
+      </c>
+      <c r="D1681" s="10">
+        <v>39.021460541684803</v>
+      </c>
+      <c r="E1681" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1681" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1682" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1682" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1682" s="4">
+        <v>-6.9484209876751901</v>
+      </c>
+      <c r="D1682" s="10">
+        <v>41.346462778864797</v>
+      </c>
+      <c r="E1682" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1682" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1683" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1683" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1683" s="4">
+        <v>-7.4604522877659099</v>
+      </c>
+      <c r="D1683" s="10">
+        <v>41.284210565857997</v>
+      </c>
+      <c r="E1683" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1683" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1684" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1684" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1684" s="4">
+        <v>-8.8691247082244793</v>
+      </c>
+      <c r="D1684" s="10">
+        <v>37.277279085854097</v>
+      </c>
+      <c r="E1684" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1684" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1685" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1685" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1685" s="4">
+        <v>-8.1495492523467696</v>
+      </c>
+      <c r="D1685" s="10">
+        <v>37.875977661184898</v>
+      </c>
+      <c r="E1685" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1685" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1686" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1686" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1686" s="4">
+        <v>-9.1644981889163493</v>
+      </c>
+      <c r="D1686" s="10">
+        <v>38.675267677362797</v>
+      </c>
+      <c r="E1686" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1686" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1687" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1687" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1687" s="4">
+        <v>-6.8369692869379799</v>
+      </c>
+      <c r="D1687" s="10">
+        <v>40.616246588265902</v>
+      </c>
+      <c r="E1687" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1687" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1688" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1688" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1688" s="4">
+        <v>-8.6350023856097895</v>
+      </c>
+      <c r="D1688" s="10">
+        <v>39.187435633665302</v>
+      </c>
+      <c r="E1688" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1688" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1689" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1689" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1689" s="4">
+        <v>-8.0346617002077991</v>
+      </c>
+      <c r="D1689" s="10">
+        <v>37.508966950304803</v>
+      </c>
+      <c r="E1689" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1689" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1690" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1690" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1690" s="4">
+        <v>-8.5705605965963301</v>
+      </c>
+      <c r="D1690" s="10">
+        <v>39.241130706562501</v>
+      </c>
+      <c r="E1690" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1690" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1691" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1691" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1691" s="4">
+        <v>-7.6454770232006801</v>
+      </c>
+      <c r="D1691" s="10">
+        <v>39.196019617172801</v>
+      </c>
+      <c r="E1691" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1691" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1692" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1692" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1692" s="4">
+        <v>-8.3951514502278908</v>
+      </c>
+      <c r="D1692" s="10">
+        <v>39.830694949306597</v>
+      </c>
+      <c r="E1692" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1692" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1693" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1693" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1693" s="4">
+        <v>-8.0058973531938395</v>
+      </c>
+      <c r="D1693" s="10">
+        <v>38.222243849869599</v>
+      </c>
+      <c r="E1693" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1693" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1694" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1694" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1694" s="4">
+        <v>-9.23690767037154</v>
+      </c>
+      <c r="D1694" s="10">
+        <v>38.777437500258401</v>
+      </c>
+      <c r="E1694" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1694" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1695" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1695" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1695" s="4">
+        <v>-8.0744930279153202</v>
+      </c>
+      <c r="D1695" s="10">
+        <v>41.278181594029398</v>
+      </c>
+      <c r="E1695" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1695" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1696" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1696" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1696" s="4">
+        <v>-8.36545937410507</v>
+      </c>
+      <c r="D1696" s="10">
+        <v>41.626656495414998</v>
+      </c>
+      <c r="E1696" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1696" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1697" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1697" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1697" s="4">
+        <v>-8.4428621249167097</v>
+      </c>
+      <c r="D1697" s="10">
+        <v>40.451204562791403</v>
+      </c>
+      <c r="E1697" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1697" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1698" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1698" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1698" s="4">
+        <v>-8.4263342721854109</v>
+      </c>
+      <c r="D1698" s="10">
+        <v>39.937157779977497</v>
+      </c>
+      <c r="E1698" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1698" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1699" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1699" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1699" s="4">
+        <v>-8.4349141869596806</v>
+      </c>
+      <c r="D1699" s="10">
+        <v>41.849026009883701</v>
+      </c>
+      <c r="E1699" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1699" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1700" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1700" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1700" s="4">
+        <v>-8.0490435978853796</v>
+      </c>
+      <c r="D1700" s="10">
+        <v>40.211318186960298</v>
+      </c>
+      <c r="E1700" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1700" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1701" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1701" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1701" s="4">
+        <v>-7.6774937328023203</v>
+      </c>
+      <c r="D1701" s="10">
+        <v>41.1052583978001</v>
+      </c>
+      <c r="E1701" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1701" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1702" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1702" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1702" s="4">
+        <v>-8.2489775179854092</v>
+      </c>
+      <c r="D1702" s="10">
+        <v>40.925751330903203</v>
+      </c>
+      <c r="E1702" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1702" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1703" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1703" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1703" s="4">
+        <v>-8.0127930788705104</v>
+      </c>
+      <c r="D1703" s="10">
+        <v>38.765406740447197</v>
+      </c>
+      <c r="E1703" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1703" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1704" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1704" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1704" s="4">
+        <v>-7.2430879759778799</v>
+      </c>
+      <c r="D1704" s="10">
+        <v>39.091271834955897</v>
+      </c>
+      <c r="E1704" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1704" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1705" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1705" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1705" s="4">
+        <v>-9.0698304290462595</v>
+      </c>
+      <c r="D1705" s="10">
+        <v>38.993123721875101</v>
+      </c>
+      <c r="E1705" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1705" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1706" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1706" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1706" s="4">
+        <v>-8.6797088953169599</v>
+      </c>
+      <c r="D1706" s="10">
+        <v>40.669025222172102</v>
+      </c>
+      <c r="E1706" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1706" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1707" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1707" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1707" s="4">
+        <v>-7.9030241055046702</v>
+      </c>
+      <c r="D1707" s="10">
+        <v>39.071488030543001</v>
+      </c>
+      <c r="E1707" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1707" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1708" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1708" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1708" s="4">
+        <v>-8.8686016969688204</v>
+      </c>
+      <c r="D1708" s="10">
+        <v>39.069761316557603</v>
+      </c>
+      <c r="E1708" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1708" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1709" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1709" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1709" s="4">
+        <v>-8.02354701728318</v>
+      </c>
+      <c r="D1709" s="10">
+        <v>41.173195488473802</v>
+      </c>
+      <c r="E1709" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1709" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1710" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1710" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1710" s="4">
+        <v>-8.6087354819872193</v>
+      </c>
+      <c r="D1710" s="10">
+        <v>41.544417668453796</v>
+      </c>
+      <c r="E1710" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1710" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1711" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1711" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1711" s="4">
+        <v>-7.0521878844344199</v>
+      </c>
+      <c r="D1711" s="10">
+        <v>38.148188296550202</v>
+      </c>
+      <c r="E1711" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1711" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1712" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1712" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1712" s="4">
+        <v>-9.0616319853591296</v>
+      </c>
+      <c r="D1712" s="10">
+        <v>38.645339872799902</v>
+      </c>
+      <c r="E1712" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1712" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1713" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1713" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1713" s="4">
+        <v>-8.8316457171132292</v>
+      </c>
+      <c r="D1713" s="10">
+        <v>39.657621295304203</v>
+      </c>
+      <c r="E1713" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1713" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1714" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1714" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1714" s="4">
+        <v>-7.9029888295393196</v>
+      </c>
+      <c r="D1714" s="10">
+        <v>38.011769127770897</v>
+      </c>
+      <c r="E1714" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1714" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1715" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1715" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1715" s="4">
+        <v>-7.3388695042831298</v>
+      </c>
+      <c r="D1715" s="10">
+        <v>40.356839435975097</v>
+      </c>
+      <c r="E1715" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1715" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1716" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1716" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1716" s="4">
+        <v>-8.8403281545909191</v>
+      </c>
+      <c r="D1716" s="10">
+        <v>38.829022935897903</v>
+      </c>
+      <c r="E1716" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1716" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1717" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1717" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1717" s="4">
+        <v>-9.1676262636737498</v>
+      </c>
+      <c r="D1717" s="10">
+        <v>39.248962957735898</v>
+      </c>
+      <c r="E1717" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1717" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1718" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1718" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1718" s="4">
+        <v>-7.4594876635036496</v>
+      </c>
+      <c r="D1718" s="10">
+        <v>38.806754748325403</v>
+      </c>
+      <c r="E1718" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1718" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1719" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1719" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1719" s="4">
+        <v>-7.6616932740550601</v>
+      </c>
+      <c r="D1719" s="10">
+        <v>41.694126044527401</v>
+      </c>
+      <c r="E1719" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1719" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1720" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1720" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1720" s="4">
+        <v>-8.40645108102159</v>
+      </c>
+      <c r="D1720" s="10">
+        <v>41.557726269915001</v>
+      </c>
+      <c r="E1720" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1720" s="6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1721" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1721" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1721" s="4">
+        <v>-6.7573226371037203</v>
+      </c>
+      <c r="D1721" s="10">
+        <v>41.822457890710503</v>
+      </c>
+      <c r="E1721" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1721" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1722" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1722" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1722" s="4">
+        <v>-8.0104084957339907</v>
+      </c>
+      <c r="D1722" s="10">
+        <v>41.514145694816797</v>
+      </c>
+      <c r="E1722" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1722" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1723" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1723" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1723" s="4">
+        <v>-9.1273414043208607</v>
+      </c>
+      <c r="D1723" s="10">
+        <v>39.221936111154797</v>
+      </c>
+      <c r="E1723" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1723" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1724" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1724" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1724" s="4">
+        <v>-9.0942463203346495</v>
+      </c>
+      <c r="D1724" s="10">
+        <v>39.385603826663903</v>
+      </c>
+      <c r="E1724" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1724" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1725" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1725" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1725" s="4">
+        <v>-8.8530521716900097</v>
+      </c>
+      <c r="D1725" s="10">
+        <v>41.820794862629199</v>
+      </c>
+      <c r="E1725" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1725" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1726" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1726" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1726" s="4">
+        <v>-7.0352466418974702</v>
+      </c>
+      <c r="D1726" s="10">
+        <v>38.9803334962481</v>
+      </c>
+      <c r="E1726" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1726" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1727" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1727" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1727" s="4">
+        <v>-8.6048914707627695</v>
+      </c>
+      <c r="D1727" s="10">
+        <v>40.353888895167401</v>
+      </c>
+      <c r="E1727" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1727" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1728" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1728" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1728" s="4">
+        <v>-7.2999542574434599</v>
+      </c>
+      <c r="D1728" s="10">
+        <v>41.245513668732897</v>
+      </c>
+      <c r="E1728" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1728" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1729" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1729" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1729" s="4">
+        <v>-8.0212568441207104</v>
+      </c>
+      <c r="D1729" s="10">
+        <v>40.430674265108401</v>
+      </c>
+      <c r="E1729" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1729" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1730" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1730" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1730" s="4">
+        <v>-8.7995285270060499</v>
+      </c>
+      <c r="D1730" s="10">
+        <v>39.165456803416397</v>
+      </c>
+      <c r="E1730" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1730" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1731" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1731" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1731" s="4">
+        <v>-9.4771361532971294</v>
+      </c>
+      <c r="D1731" s="10">
+        <v>38.725958718913297</v>
+      </c>
+      <c r="E1731" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1731" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1732" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1732" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1732" s="4">
+        <v>-8.1958075371285801</v>
+      </c>
+      <c r="D1732" s="10">
+        <v>40.0199488248237</v>
+      </c>
+      <c r="E1732" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1732" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1733" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1733" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1733" s="4">
+        <v>-7.58038460171207</v>
+      </c>
+      <c r="D1733" s="10">
+        <v>39.835314530536898</v>
+      </c>
+      <c r="E1733" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1733" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1734" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1734" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1734" s="4">
+        <v>-8.2542962923159102</v>
+      </c>
+      <c r="D1734" s="10">
+        <v>41.0340673485235</v>
+      </c>
+      <c r="E1734" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1734" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1735" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1735" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1735" s="4">
+        <v>-7.4348064195331904</v>
+      </c>
+      <c r="D1735" s="10">
+        <v>39.4562794901166</v>
+      </c>
+      <c r="E1735" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1735" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1736" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1736" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1736" s="4">
+        <v>-7.9122567588580202</v>
+      </c>
+      <c r="D1736" s="10">
+        <v>40.9144473283583</v>
+      </c>
+      <c r="E1736" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1736" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1737" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1737" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1737" s="4">
+        <v>-7.4781175215891</v>
+      </c>
+      <c r="D1737" s="10">
+        <v>37.230651888795002</v>
+      </c>
+      <c r="E1737" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1737" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1738" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1738" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1738" s="4">
+        <v>-8.0911078426638898</v>
+      </c>
+      <c r="D1738" s="10">
+        <v>37.712789767654897</v>
+      </c>
+      <c r="E1738" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1738" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1739" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1739" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1739" s="4">
+        <v>-7.4175967862614502</v>
+      </c>
+      <c r="D1739" s="10">
+        <v>40.634308339971803</v>
+      </c>
+      <c r="E1739" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1739" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1740" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1740" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1740" s="4">
+        <v>-8.0052050731222693</v>
+      </c>
+      <c r="D1740" s="10">
+        <v>41.397447613296698</v>
+      </c>
+      <c r="E1740" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1740" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1741" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1741" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1741" s="4">
+        <v>-8.4511730813077701</v>
+      </c>
+      <c r="D1741" s="10">
+        <v>39.3600683701967</v>
+      </c>
+      <c r="E1741" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1741" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1742" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1742" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1742" s="4">
+        <v>-7.47794843952326</v>
+      </c>
+      <c r="D1742" s="10">
+        <v>41.7400783586316</v>
+      </c>
+      <c r="E1742" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1742" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1743" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1743" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1743" s="4">
+        <v>-8.0906903747626</v>
+      </c>
+      <c r="D1743" s="10">
+        <v>41.0565039698851</v>
+      </c>
+      <c r="E1743" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1743" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1744" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1744" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1744" s="4">
+        <v>-8.4002742668774193</v>
+      </c>
+      <c r="D1744" s="10">
+        <v>40.210753988671101</v>
+      </c>
+      <c r="E1744" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1744" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1745" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1745" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1745" s="4">
+        <v>-8.4785244243049007</v>
+      </c>
+      <c r="D1745" s="10">
+        <v>40.100536084158698</v>
+      </c>
+      <c r="E1745" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1745" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1746" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1746" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1746" s="4">
+        <v>-8.2857754523213192</v>
+      </c>
+      <c r="D1746" s="10">
+        <v>39.404489423529</v>
+      </c>
+      <c r="E1746" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1746" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1747" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1747" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1747" s="4">
+        <v>-8.5062340803309802</v>
+      </c>
+      <c r="D1747" s="10">
+        <v>38.959080131947502</v>
+      </c>
+      <c r="E1747" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1747" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1748" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1748" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1748" s="4">
+        <v>-7.49750007456276</v>
+      </c>
+      <c r="D1748" s="10">
+        <v>40.280046210918201</v>
+      </c>
+      <c r="E1748" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1748" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1749" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1749" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1749" s="4">
+        <v>-7.59547488393794</v>
+      </c>
+      <c r="D1749" s="10">
+        <v>39.290834816737203</v>
+      </c>
+      <c r="E1749" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1749" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1750" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1750" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1750" s="4">
+        <v>-7.8920968594123497</v>
+      </c>
+      <c r="D1750" s="10">
+        <v>38.175705898397098</v>
+      </c>
+      <c r="E1750" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1750" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1751" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1751" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1751" s="4">
+        <v>-7.1579101641493503</v>
+      </c>
+      <c r="D1751" s="10">
+        <v>38.825753810294003</v>
+      </c>
+      <c r="E1751" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1751" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1752" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1752" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1752" s="4">
+        <v>-8.4812827539316</v>
+      </c>
+      <c r="D1752" s="10">
+        <v>39.469286961551298</v>
+      </c>
+      <c r="E1752" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1752" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1753" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1753" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1753" s="4">
+        <v>-8.6141551724019205</v>
+      </c>
+      <c r="D1753" s="10">
+        <v>41.0081025434148</v>
+      </c>
+      <c r="E1753" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1753" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1754" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1754" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1754" s="4">
+        <v>-8.7732295612827293</v>
+      </c>
+      <c r="D1754" s="10">
+        <v>41.541807896693598</v>
+      </c>
+      <c r="E1754" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1754" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1755" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1755" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1755" s="4">
+        <v>-8.5795426500106799</v>
+      </c>
+      <c r="D1755" s="10">
+        <v>40.761086038042599</v>
+      </c>
+      <c r="E1755" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1755" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1756" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1756" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1756" s="4">
+        <v>-7.5911514410202399</v>
+      </c>
+      <c r="D1756" s="10">
+        <v>38.841452272741101</v>
+      </c>
+      <c r="E1756" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1756" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1757" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1757" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1757" s="4">
+        <v>-7.9185092138012596</v>
+      </c>
+      <c r="D1757" s="10">
+        <v>38.549701007873601</v>
+      </c>
+      <c r="E1757" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1757" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1758" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1758" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1758" s="4">
+        <v>-8.1752389141564699</v>
+      </c>
+      <c r="D1758" s="10">
+        <v>41.4496167119758</v>
+      </c>
+      <c r="E1758" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1758" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1759" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1759" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1759" s="4">
+        <v>-7.9082611956164701</v>
+      </c>
+      <c r="D1759" s="10">
+        <v>37.006372236115197</v>
+      </c>
+      <c r="E1759" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1759" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1760" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1760" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1760" s="4">
+        <v>-8.2038141592714204</v>
+      </c>
+      <c r="D1760" s="10">
+        <v>41.358592011986197</v>
+      </c>
+      <c r="E1760" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1760" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1761" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1761" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1761" s="4">
+        <v>-8.1891706308716792</v>
+      </c>
+      <c r="D1761" s="10">
+        <v>38.041291881416697</v>
+      </c>
+      <c r="E1761" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1761" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1762" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1762" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1762" s="4">
+        <v>-8.2620565165614206</v>
+      </c>
+      <c r="D1762" s="10">
+        <v>39.682316371952901</v>
+      </c>
+      <c r="E1762" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1762" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1763" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1763" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1763" s="4">
+        <v>-8.8709768522908803</v>
+      </c>
+      <c r="D1763" s="10">
+        <v>40.171767891582299</v>
+      </c>
+      <c r="E1763" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1763" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1764" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1764" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1764" s="4">
+        <v>-6.9632400283587801</v>
+      </c>
+      <c r="D1764" s="10">
+        <v>40.911085098511798</v>
+      </c>
+      <c r="E1764" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1764" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1765" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1765" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1765" s="4">
+        <v>-8.2692265812622701</v>
+      </c>
+      <c r="D1765" s="10">
+        <v>39.886269194640597</v>
+      </c>
+      <c r="E1765" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1765" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1766" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1766" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1766" s="4">
+        <v>-7.5541939539247398</v>
+      </c>
+      <c r="D1766" s="10">
+        <v>40.606377468710399</v>
+      </c>
+      <c r="E1766" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1766" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1767" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1767" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1767" s="4">
+        <v>-6.81690706674138</v>
+      </c>
+      <c r="D1767" s="10">
+        <v>41.104404997194699</v>
+      </c>
+      <c r="E1767" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1767" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1768" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1768" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1768" s="4">
+        <v>-7.6665670721803298</v>
+      </c>
+      <c r="D1768" s="10">
+        <v>39.071043619515798</v>
+      </c>
+      <c r="E1768" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1768" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1769" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1769" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1769" s="4">
+        <v>-7.4935378218483901</v>
+      </c>
+      <c r="D1769" s="10">
+        <v>40.154089092462399</v>
+      </c>
+      <c r="E1769" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1769" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1770" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1770" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1770" s="4">
+        <v>-7.92440967710123</v>
+      </c>
+      <c r="D1770" s="10">
+        <v>39.457293737617697</v>
+      </c>
+      <c r="E1770" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1770" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1771" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1771" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1771" s="4">
+        <v>-8.1206591584726109</v>
+      </c>
+      <c r="D1771" s="10">
+        <v>40.134935396592503</v>
+      </c>
+      <c r="E1771" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1771" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1772" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1772" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1772" s="4">
+        <v>-8.4767688805058992</v>
+      </c>
+      <c r="D1772" s="10">
+        <v>39.4090135038578</v>
+      </c>
+      <c r="E1772" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1772" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1773" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1773" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1773" s="4">
+        <v>-8.5601019353607306</v>
+      </c>
+      <c r="D1773" s="10">
+        <v>41.179302410772998</v>
+      </c>
+      <c r="E1773" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1773" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1774" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1774" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1774" s="4">
+        <v>-7.4888760570653696</v>
+      </c>
+      <c r="D1774" s="10">
+        <v>40.532254699057802</v>
+      </c>
+      <c r="E1774" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1774" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1775" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1775" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1775" s="4">
+        <v>-8.5607131388645499</v>
+      </c>
+      <c r="D1775" s="10">
+        <v>38.182591564470897</v>
+      </c>
+      <c r="E1775" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1775" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1776" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1776" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1776" s="4">
+        <v>-7.2501922841039503</v>
+      </c>
+      <c r="D1776" s="10">
+        <v>40.537417589893799</v>
+      </c>
+      <c r="E1776" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1776" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1777" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1777" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1777" s="4">
+        <v>-8.3122084668013301</v>
+      </c>
+      <c r="D1777" s="10">
+        <v>41.438347762552297</v>
+      </c>
+      <c r="E1777" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1777" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1778" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1778" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1778" s="4">
+        <v>-7.1957444451072403</v>
+      </c>
+      <c r="D1778" s="10">
+        <v>39.904527156117197</v>
+      </c>
+      <c r="E1778" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1778" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1779" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1779" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1779" s="4">
+        <v>-8.6751678849701293</v>
+      </c>
+      <c r="D1779" s="10">
+        <v>40.593763765170898</v>
+      </c>
+      <c r="E1779" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1779" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1780" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1780" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1780" s="4">
+        <v>-8.4403491656444398</v>
+      </c>
+      <c r="D1780" s="10">
+        <v>37.086746048961103</v>
+      </c>
+      <c r="E1780" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1780" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1781" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1781" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1781" s="4">
+        <v>-8.6679089966110894</v>
+      </c>
+      <c r="D1781" s="10">
+        <v>37.079858445268101</v>
+      </c>
+      <c r="E1781" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1781" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1782" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1782" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1782" s="4">
+        <v>-7.8037501056158698</v>
+      </c>
+      <c r="D1782" s="10">
+        <v>41.097892645246802</v>
+      </c>
+      <c r="E1782" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1782" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1783" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1783" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1783" s="4">
+        <v>-8.7839908105699394</v>
+      </c>
+      <c r="D1783" s="10">
+        <v>39.716662274429801</v>
+      </c>
+      <c r="E1783" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1783" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1784" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1784" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1784" s="4">
+        <v>-9.1634922283993703</v>
+      </c>
+      <c r="D1784" s="10">
+        <v>38.769790755098498</v>
+      </c>
+      <c r="E1784" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1784" s="6">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1785" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1785" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1785" s="4">
+        <v>-8.1051426843928809</v>
+      </c>
+      <c r="D1785" s="10">
+        <v>37.090785317535698</v>
+      </c>
+      <c r="E1785" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1785" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1786" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1786" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1786" s="4">
+        <v>-9.0945196247769609</v>
+      </c>
+      <c r="D1786" s="10">
+        <v>38.828585030982602</v>
+      </c>
+      <c r="E1786" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1786" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1787" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1787" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1787" s="4">
+        <v>-9.3028084098694208</v>
+      </c>
+      <c r="D1787" s="10">
+        <v>39.252889632812902</v>
+      </c>
+      <c r="E1787" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1787" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1788" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1788" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1788" s="4">
+        <v>-8.2294594638552905</v>
+      </c>
+      <c r="D1788" s="10">
+        <v>40.106937279097799</v>
+      </c>
+      <c r="E1788" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1788" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1789" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1789" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1789" s="4">
+        <v>-8.2904355132989505</v>
+      </c>
+      <c r="D1789" s="10">
+        <v>41.277027667826999</v>
+      </c>
+      <c r="E1789" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1789" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1790" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1790" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1790" s="4">
+        <v>-8.0206501346541401</v>
+      </c>
+      <c r="D1790" s="10">
+        <v>39.568663141171903</v>
+      </c>
+      <c r="E1790" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1790" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1791" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1791" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1791" s="4">
+        <v>-6.96585493377549</v>
+      </c>
+      <c r="D1791" s="10">
+        <v>41.537563048687403</v>
+      </c>
+      <c r="E1791" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1791" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1792" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1792" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1792" s="4">
+        <v>-9.3355767988141203</v>
+      </c>
+      <c r="D1792" s="10">
+        <v>38.956432872075901</v>
+      </c>
+      <c r="E1792" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1792" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1793" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1793" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1793" s="4">
+        <v>-8.6140945702409795</v>
+      </c>
+      <c r="D1793" s="10">
+        <v>41.229821948810397</v>
+      </c>
+      <c r="E1793" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1793" s="6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1794" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1794" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1794" s="4">
+        <v>-7.7554065205642297</v>
+      </c>
+      <c r="D1794" s="10">
+        <v>40.606816903602898</v>
+      </c>
+      <c r="E1794" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1794" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1795" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1795" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1795" s="4">
+        <v>-7.5541944398049097</v>
+      </c>
+      <c r="D1795" s="10">
+        <v>40.361448896535599</v>
+      </c>
+      <c r="E1795" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1795" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1796" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1796" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1796" s="4">
+        <v>-8.1521446964542399</v>
+      </c>
+      <c r="D1796" s="10">
+        <v>41.175742009538801</v>
+      </c>
+      <c r="E1796" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1796" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1797" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1797" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1797" s="4">
+        <v>-8.9551604502261295</v>
+      </c>
+      <c r="D1797" s="10">
+        <v>39.768005701804299</v>
+      </c>
+      <c r="E1797" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1797" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1798" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1798" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1798" s="4">
+        <v>-7.3811516107211803</v>
+      </c>
+      <c r="D1798" s="10">
+        <v>39.3593840594366</v>
+      </c>
+      <c r="E1798" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1798" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1799" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1799" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1799" s="4">
+        <v>-8.6303688393640599</v>
+      </c>
+      <c r="D1799" s="10">
+        <v>41.188956619709003</v>
+      </c>
+      <c r="E1799" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1799" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1800" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1800" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1800" s="4">
+        <v>-8.4621362667668105</v>
+      </c>
+      <c r="D1800" s="10">
+        <v>40.389867333143897</v>
+      </c>
+      <c r="E1800" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1800" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1801" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1801" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1801" s="4">
+        <v>-7.2440755276651503</v>
+      </c>
+      <c r="D1801" s="10">
+        <v>40.8622760975109</v>
+      </c>
+      <c r="E1801" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1801" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1802" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1802" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1802" s="4">
+        <v>-8.2369748982589108</v>
+      </c>
+      <c r="D1802" s="10">
+        <v>42.102078541763198</v>
+      </c>
+      <c r="E1802" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1802" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1803" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1803" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1803" s="4">
+        <v>-7.6664924166911002</v>
+      </c>
+      <c r="D1803" s="10">
+        <v>37.701776363405003</v>
+      </c>
+      <c r="E1803" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1803" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1804" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1804" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1804" s="4">
+        <v>-7.8863248237712797</v>
+      </c>
+      <c r="D1804" s="10">
+        <v>41.163031763827597</v>
+      </c>
+      <c r="E1804" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1804" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1805" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1805" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1805" s="4">
+        <v>-8.7406802916179096</v>
+      </c>
+      <c r="D1805" s="10">
+        <v>40.414411147886099</v>
+      </c>
+      <c r="E1805" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1805" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1806" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1806" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1806" s="4">
+        <v>-8.3281590831608998</v>
+      </c>
+      <c r="D1806" s="10">
+        <v>40.098029312526499</v>
+      </c>
+      <c r="E1806" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1806" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1807" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1807" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1807" s="4">
+        <v>-6.2676484434248101</v>
+      </c>
+      <c r="D1807" s="10">
+        <v>41.521947590456399</v>
+      </c>
+      <c r="E1807" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1807" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1808" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1808" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1808" s="4">
+        <v>-7.1778847969819202</v>
+      </c>
+      <c r="D1808" s="10">
+        <v>41.4764874174599</v>
+      </c>
+      <c r="E1808" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1808" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1809" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1809" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1809" s="4">
+        <v>-6.72923364395443</v>
+      </c>
+      <c r="D1809" s="10">
+        <v>41.3108532024007</v>
+      </c>
+      <c r="E1809" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1809" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1810" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1810" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1810" s="4">
+        <v>-7.6014592248523902</v>
+      </c>
+      <c r="D1810" s="10">
+        <v>40.988851238109298</v>
+      </c>
+      <c r="E1810" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1810" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1811" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1811" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1811" s="4">
+        <v>-9.0391156218320408</v>
+      </c>
+      <c r="D1811" s="10">
+        <v>38.657594009605504</v>
+      </c>
+      <c r="E1811" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1811" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1812" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1812" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1812" s="4">
+        <v>-8.4651435497440293</v>
+      </c>
+      <c r="D1812" s="10">
+        <v>42.070696800563802</v>
+      </c>
+      <c r="E1812" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1812" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1813" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1813" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1813" s="4">
+        <v>-8.5768242033878792</v>
+      </c>
+      <c r="D1813" s="10">
+        <v>37.328951177249003</v>
+      </c>
+      <c r="E1813" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1813" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1814" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1814" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1814" s="4">
+        <v>-7.9485936494213396</v>
+      </c>
+      <c r="D1814" s="10">
+        <v>41.402395026645799</v>
+      </c>
+      <c r="E1814" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1814" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1815" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1815" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1815" s="4">
+        <v>-7.41433983012596</v>
+      </c>
+      <c r="D1815" s="10">
+        <v>39.031224679289998</v>
+      </c>
+      <c r="E1815" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1815" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1816" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1816" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1816" s="4">
+        <v>-7.7876381645646298</v>
+      </c>
+      <c r="D1816" s="10">
+        <v>41.843274778997902</v>
+      </c>
+      <c r="E1816" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1816" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1817" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1817" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1817" s="4">
+        <v>-8.2165198191793891</v>
+      </c>
+      <c r="D1817" s="10">
+        <v>38.662574686408199</v>
+      </c>
+      <c r="E1817" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1817" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1818" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1818" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1818" s="4">
+        <v>-8.6755880673708692</v>
+      </c>
+      <c r="D1818" s="10">
+        <v>40.277233600848099</v>
+      </c>
+      <c r="E1818" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1818" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1819" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1819" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1819" s="4">
+        <v>-8.9915832587868199</v>
+      </c>
+      <c r="D1819" s="10">
+        <v>38.707395779208198</v>
+      </c>
+      <c r="E1819" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1819" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1820" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1820" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1820" s="4">
+        <v>-8.1820869651549195</v>
+      </c>
+      <c r="D1820" s="10">
+        <v>38.953268326200899</v>
+      </c>
+      <c r="E1820" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1820" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1821" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1821" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1821" s="4">
+        <v>-8.2289236971915596</v>
+      </c>
+      <c r="D1821" s="10">
+        <v>40.379237437568399</v>
+      </c>
+      <c r="E1821" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1821" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1822" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1822" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1822" s="4">
+        <v>-7.4007809488824101</v>
+      </c>
+      <c r="D1822" s="10">
+        <v>38.132137154037402</v>
+      </c>
+      <c r="E1822" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1822" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1823" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1823" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1823" s="4">
+        <v>-7.29610658399712</v>
+      </c>
+      <c r="D1823" s="10">
+        <v>38.365971703880902</v>
+      </c>
+      <c r="E1823" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1823" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1824" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1824" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1824" s="4">
+        <v>-7.45290057462707</v>
+      </c>
+      <c r="D1824" s="10">
+        <v>41.412408744631598</v>
+      </c>
+      <c r="E1824" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1824" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1825" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1825" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1825" s="4">
+        <v>-8.6541686560453108</v>
+      </c>
+      <c r="D1825" s="10">
+        <v>40.736112933470999</v>
+      </c>
+      <c r="E1825" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1825" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1826" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1826" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1826" s="4">
+        <v>-9.0381952778185308</v>
+      </c>
+      <c r="D1826" s="10">
+        <v>39.619499435976103</v>
+      </c>
+      <c r="E1826" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1826" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1827" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1827" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1827" s="4">
+        <v>-7.8557375205911502</v>
+      </c>
+      <c r="D1827" s="10">
+        <v>40.520916299954898</v>
+      </c>
+      <c r="E1827" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1827" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1828" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1828" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1828" s="4">
+        <v>-7.6321272104049802</v>
+      </c>
+      <c r="D1828" s="10">
+        <v>39.517287069770198</v>
+      </c>
+      <c r="E1828" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1828" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1829" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1829" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1829" s="4">
+        <v>-9.1671261622542293</v>
+      </c>
+      <c r="D1829" s="10">
+        <v>39.368462909921199</v>
+      </c>
+      <c r="E1829" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1829" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1830" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1830" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1830" s="4">
+        <v>-8.6977644846106994</v>
+      </c>
+      <c r="D1830" s="10">
+        <v>37.491913579141197</v>
+      </c>
+      <c r="E1830" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1830" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1831" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1831" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1831" s="4">
+        <v>-9.1824230261828497</v>
+      </c>
+      <c r="D1831" s="10">
+        <v>38.791189576149698</v>
+      </c>
+      <c r="E1831" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1831" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1832" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1832" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1832" s="4">
+        <v>-9.2983695910928503</v>
+      </c>
+      <c r="D1832" s="10">
+        <v>38.699858489269403</v>
+      </c>
+      <c r="E1832" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1832" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1833" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1833" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1833" s="4">
+        <v>-7.8967334598423697</v>
+      </c>
+      <c r="D1833" s="10">
+        <v>39.926411361492903</v>
+      </c>
+      <c r="E1833" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1833" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1834" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1834" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1834" s="4">
+        <v>-7.8227933384344501</v>
+      </c>
+      <c r="D1834" s="10">
+        <v>37.0476263682813</v>
+      </c>
+      <c r="E1834" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1834" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1835" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1835" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1835" s="4">
+        <v>-8.4829391547911399</v>
+      </c>
+      <c r="D1835" s="10">
+        <v>40.836334414434297</v>
+      </c>
+      <c r="E1835" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1835" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1836" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1836" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1836" s="4">
+        <v>-8.1881949704345907</v>
+      </c>
+      <c r="D1836" s="10">
+        <v>40.730778683931</v>
+      </c>
+      <c r="E1836" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1836" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1837" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1837" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1837" s="4">
+        <v>-8.5431860979451208</v>
+      </c>
+      <c r="D1837" s="10">
+        <v>40.537437703669802</v>
+      </c>
+      <c r="E1837" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1837" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1838" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1838" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1838" s="4">
+        <v>-7.8490221327340697</v>
+      </c>
+      <c r="D1838" s="10">
+        <v>40.355132586470901</v>
+      </c>
+      <c r="E1838" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1838" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1839" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1839" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1839" s="4">
+        <v>-8.6466345170797805</v>
+      </c>
+      <c r="D1839" s="10">
+        <v>39.593975938903398</v>
+      </c>
+      <c r="E1839" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1839" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1840" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1840" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1840" s="4">
+        <v>-8.24451660075575</v>
+      </c>
+      <c r="D1840" s="10">
+        <v>37.644988950383699</v>
+      </c>
+      <c r="E1840" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1840" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1841" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1841" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1841" s="4">
+        <v>-8.6251485929200804</v>
+      </c>
+      <c r="D1841" s="10">
+        <v>40.8649979430919</v>
+      </c>
+      <c r="E1841" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1841" s="6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1842" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1842" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1842" s="4">
+        <v>-8.3795377177555608</v>
+      </c>
+      <c r="D1842" s="10">
+        <v>41.268782155515503</v>
+      </c>
+      <c r="E1842" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1842" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1843" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1843" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1843" s="4">
+        <v>-8.8983487426744006</v>
+      </c>
+      <c r="D1843" s="10">
+        <v>38.639294519269697</v>
+      </c>
+      <c r="E1843" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1843" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1844" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1844" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1844" s="4">
+        <v>-7.9530770363434202</v>
+      </c>
+      <c r="D1844" s="10">
+        <v>40.054967219727303</v>
+      </c>
+      <c r="E1844" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1844" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1845" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1845" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1845" s="4">
+        <v>-8.3405257575578595</v>
+      </c>
+      <c r="D1845" s="10">
+        <v>41.213589907457802</v>
+      </c>
+      <c r="E1845" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1845" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1846" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1846" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1846" s="4">
+        <v>-8.5615687668860208</v>
+      </c>
+      <c r="D1846" s="10">
+        <v>41.905821580060397</v>
+      </c>
+      <c r="E1846" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1846" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1847" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1847" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1847" s="4">
+        <v>-8.1593950859258797</v>
+      </c>
+      <c r="D1847" s="10">
+        <v>39.949234423417401</v>
+      </c>
+      <c r="E1847" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1847" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1848" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1848" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1848" s="4">
+        <v>-8.3276232636292598</v>
+      </c>
+      <c r="D1848" s="10">
+        <v>40.250669246954899</v>
+      </c>
+      <c r="E1848" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1848" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1849" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1849" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1849" s="4">
+        <v>-8.2784491414450994</v>
+      </c>
+      <c r="D1849" s="10">
+        <v>41.2035741487393</v>
+      </c>
+      <c r="E1849" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1849" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1850" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1850" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1850" s="4">
+        <v>-7.7072282238736998</v>
+      </c>
+      <c r="D1850" s="10">
+        <v>40.675092122079398</v>
+      </c>
+      <c r="E1850" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1850" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1851" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1851" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1851" s="4">
+        <v>-7.1134898685244998</v>
+      </c>
+      <c r="D1851" s="10">
+        <v>40.1716185503291</v>
+      </c>
+      <c r="E1851" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1851" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1852" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1852" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1852" s="4">
+        <v>-7.3940737508224803</v>
+      </c>
+      <c r="D1852" s="10">
+        <v>40.991293392028297</v>
+      </c>
+      <c r="E1852" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1852" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1853" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1853" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1853" s="4">
+        <v>-8.3876441873391396</v>
+      </c>
+      <c r="D1853" s="10">
+        <v>40.016599428956802</v>
+      </c>
+      <c r="E1853" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1853" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1854" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1854" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1854" s="4">
+        <v>-9.3827421079829207</v>
+      </c>
+      <c r="D1854" s="10">
+        <v>39.360435694331102</v>
+      </c>
+      <c r="E1854" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1854" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1855" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1855" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1855" s="4">
+        <v>-7.7919018780693898</v>
+      </c>
+      <c r="D1855" s="10">
+        <v>41.1670941882386</v>
+      </c>
+      <c r="E1855" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1855" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1856" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1856" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1856" s="4">
+        <v>-7.0744749981138302</v>
+      </c>
+      <c r="D1856" s="10">
+        <v>40.779496515985898</v>
+      </c>
+      <c r="E1856" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1856" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1857" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1857" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1857" s="4">
+        <v>-8.6405354086829007</v>
+      </c>
+      <c r="D1857" s="10">
+        <v>39.913921328534499</v>
+      </c>
+      <c r="E1857" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1857" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1858" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1858" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1858" s="4">
+        <v>-8.3958621802016093</v>
+      </c>
+      <c r="D1858" s="10">
+        <v>41.801513305785697</v>
+      </c>
+      <c r="E1858" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1858" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1859" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1859" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1859" s="4">
+        <v>-8.5772812293910494</v>
+      </c>
+      <c r="D1859" s="10">
+        <v>41.761526014748</v>
+      </c>
+      <c r="E1859" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1859" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1860" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1860" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1860" s="4">
+        <v>-7.9934933959372403</v>
+      </c>
+      <c r="D1860" s="10">
+        <v>39.2592415407034</v>
+      </c>
+      <c r="E1860" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1860" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1861" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1861" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1861" s="4">
+        <v>-7.43214586220319</v>
+      </c>
+      <c r="D1861" s="10">
+        <v>39.290952045325</v>
+      </c>
+      <c r="E1861" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1861" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1862" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1862" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1862" s="4">
+        <v>-7.7102674222103698</v>
+      </c>
+      <c r="D1862" s="10">
+        <v>38.303434529284203</v>
+      </c>
+      <c r="E1862" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1862" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1863" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1863" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1863" s="4">
+        <v>-8.5414118281771003</v>
+      </c>
+      <c r="D1863" s="10">
+        <v>37.183837172142802</v>
+      </c>
+      <c r="E1863" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1863" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1864" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1864" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1864" s="4">
+        <v>-8.6042537452245291</v>
+      </c>
+      <c r="D1864" s="10">
+        <v>41.174247522807804</v>
+      </c>
+      <c r="E1864" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1864" s="6">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1865" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1865" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1865" s="4">
+        <v>-8.8614187184851705</v>
+      </c>
+      <c r="D1865" s="10">
+        <v>39.617092578911098</v>
+      </c>
+      <c r="E1865" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1865" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1866" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1866" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1866" s="4">
+        <v>-8.2678399041246706</v>
+      </c>
+      <c r="D1866" s="10">
+        <v>41.577970851150504</v>
+      </c>
+      <c r="E1866" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1866" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1867" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1867" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1867" s="4">
+        <v>-8.7417108663827499</v>
+      </c>
+      <c r="D1867" s="10">
+        <v>41.385552798280102</v>
+      </c>
+      <c r="E1867" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1867" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1868" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1868" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1868" s="4">
+        <v>-7.90253936803391</v>
+      </c>
+      <c r="D1868" s="10">
+        <v>39.728832555886797</v>
+      </c>
+      <c r="E1868" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1868" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1869" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1869" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1869" s="4">
+        <v>-7.60174651093023</v>
+      </c>
+      <c r="D1869" s="10">
+        <v>38.6481340084921</v>
+      </c>
+      <c r="E1869" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1869" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1870" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1870" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1870" s="4">
+        <v>-7.5526669602588496</v>
+      </c>
+      <c r="D1870" s="10">
+        <v>38.418701778305902</v>
+      </c>
+      <c r="E1870" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1870" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1871" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1871" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1871" s="4">
+        <v>-7.9443397449026696</v>
+      </c>
+      <c r="D1871" s="10">
+        <v>41.102422138664501</v>
+      </c>
+      <c r="E1871" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1871" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1872" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1872" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1872" s="4">
+        <v>-7.8185508859085804</v>
+      </c>
+      <c r="D1872" s="10">
+        <v>41.516687161077201</v>
+      </c>
+      <c r="E1872" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1872" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1873" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1873" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1873" s="4">
+        <v>-8.9410738451978702</v>
+      </c>
+      <c r="D1873" s="10">
+        <v>39.338143681549603</v>
+      </c>
+      <c r="E1873" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1873" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1874" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1874" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1874" s="4">
+        <v>-7.5671170990655696</v>
+      </c>
+      <c r="D1874" s="10">
+        <v>41.268681564346103</v>
+      </c>
+      <c r="E1874" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1874" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1875" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1875" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1875" s="4">
+        <v>-7.0895139817545303</v>
+      </c>
+      <c r="D1875" s="10">
+        <v>40.3393434365681</v>
+      </c>
+      <c r="E1875" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1875" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1876" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1876" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1876" s="4">
+        <v>-8.7471921147103302</v>
+      </c>
+      <c r="D1876" s="10">
+        <v>39.014470629446301</v>
+      </c>
+      <c r="E1876" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1876" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1877" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1877" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1877" s="4">
+        <v>-8.1436929905811706</v>
+      </c>
+      <c r="D1877" s="10">
+        <v>40.408219732805698</v>
+      </c>
+      <c r="E1877" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1877" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1878" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1878" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1878" s="4">
+        <v>-8.5522468327758006</v>
+      </c>
+      <c r="D1878" s="10">
+        <v>40.909536634615499</v>
+      </c>
+      <c r="E1878" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1878" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1879" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1879" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1879" s="4">
+        <v>-7.7824390005546604</v>
+      </c>
+      <c r="D1879" s="10">
+        <v>41.198531053878298</v>
+      </c>
+      <c r="E1879" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1879" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1880" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1880" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1880" s="4">
+        <v>-8.6884458646244802</v>
+      </c>
+      <c r="D1880" s="10">
+        <v>39.238096028394303</v>
+      </c>
+      <c r="E1880" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1880" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1881" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1881" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1881" s="4">
+        <v>-8.7736582048144207</v>
+      </c>
+      <c r="D1881" s="10">
+        <v>38.068000118054698</v>
+      </c>
+      <c r="E1881" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1881" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1882" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1882" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1882" s="4">
+        <v>-8.3531945627308897</v>
+      </c>
+      <c r="D1882" s="10">
+        <v>41.351181982911598</v>
+      </c>
+      <c r="E1882" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1882" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1883" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1883" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1883" s="4">
+        <v>-7.8786422069007802</v>
+      </c>
+      <c r="D1883" s="10">
+        <v>37.195683792874298</v>
+      </c>
+      <c r="E1883" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1883" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1884" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1884" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1884" s="4">
+        <v>-8.4903654010529603</v>
+      </c>
+      <c r="D1884" s="10">
+        <v>40.895631508228803</v>
+      </c>
+      <c r="E1884" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1884" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1885" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1885" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1885" s="4">
+        <v>-7.4216293541778402</v>
+      </c>
+      <c r="D1885" s="10">
+        <v>41.136708094045098</v>
+      </c>
+      <c r="E1885" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1885" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1886" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1886" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1886" s="4">
+        <v>-8.0678557452168906</v>
+      </c>
+      <c r="D1886" s="10">
+        <v>40.756654451289499</v>
+      </c>
+      <c r="E1886" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1886" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1887" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1887" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1887" s="4">
+        <v>-8.1555097332573698</v>
+      </c>
+      <c r="D1887" s="10">
+        <v>39.542479499695403</v>
+      </c>
+      <c r="E1887" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1887" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1888" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1888" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1888" s="4">
+        <v>-7.7502974550178996</v>
+      </c>
+      <c r="D1888" s="10">
+        <v>40.748882275913999</v>
+      </c>
+      <c r="E1888" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1888" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1889" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1889" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1889" s="4">
+        <v>-7.6862157870688002</v>
+      </c>
+      <c r="D1889" s="10">
+        <v>40.399317421940303</v>
+      </c>
+      <c r="E1889" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1889" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1890" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1890" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1890" s="4">
+        <v>-9.1288541891447004</v>
+      </c>
+      <c r="D1890" s="10">
+        <v>38.613917224409299</v>
+      </c>
+      <c r="E1890" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1890" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1891" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1891" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1891" s="4">
+        <v>-7.4704132325600696</v>
+      </c>
+      <c r="D1891" s="10">
+        <v>40.896740866144697</v>
+      </c>
+      <c r="E1891" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1891" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1892" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1892" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1892" s="4">
+        <v>-7.5557827671159803</v>
+      </c>
+      <c r="D1892" s="10">
+        <v>37.885920010674198</v>
+      </c>
+      <c r="E1892" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1892" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1893" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1893" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1893" s="4">
+        <v>-8.0848907416987998</v>
+      </c>
+      <c r="D1893" s="10">
+        <v>39.824425062199502</v>
+      </c>
+      <c r="E1893" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1893" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1894" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1894" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1894" s="4">
+        <v>-9.0630131262803495</v>
+      </c>
+      <c r="D1894" s="10">
+        <v>38.552008083120597</v>
+      </c>
+      <c r="E1894" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1894" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1895" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1895" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1895" s="4">
+        <v>-8.8623813706227104</v>
+      </c>
+      <c r="D1895" s="10">
+        <v>38.527225086723597</v>
+      </c>
+      <c r="E1895" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1895" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1896" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1896" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1896" s="4">
+        <v>-8.3788490421133606</v>
+      </c>
+      <c r="D1896" s="10">
+        <v>40.731116039588798</v>
+      </c>
+      <c r="E1896" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1896" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1897" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1897" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1897" s="4">
+        <v>-8.4335954420186106</v>
+      </c>
+      <c r="D1897" s="10">
+        <v>37.220814126970303</v>
+      </c>
+      <c r="E1897" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1897" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1898" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1898" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1898" s="4">
+        <v>-8.8884512005123302</v>
+      </c>
+      <c r="D1898" s="10">
+        <v>37.957613671581598</v>
+      </c>
+      <c r="E1898" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1898" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1899" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1899" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1899" s="4">
+        <v>-9.3339338519850799</v>
+      </c>
+      <c r="D1899" s="10">
+        <v>38.805379302335503</v>
+      </c>
+      <c r="E1899" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1899" s="6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1900" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1900" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1900" s="4">
+        <v>-9.1401448566453194</v>
+      </c>
+      <c r="D1900" s="10">
+        <v>39.002930163433</v>
+      </c>
+      <c r="E1900" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1900" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1901" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1901" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1901" s="4">
+        <v>-8.6128145651551709</v>
+      </c>
+      <c r="D1901" s="10">
+        <v>40.053098121073504</v>
+      </c>
+      <c r="E1901" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1901" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1902" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1902" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1902" s="4">
+        <v>-7.6799488968790204</v>
+      </c>
+      <c r="D1902" s="10">
+        <v>38.965485262805103</v>
+      </c>
+      <c r="E1902" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1902" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1903" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1903" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1903" s="4">
+        <v>-8.0233007789799196</v>
+      </c>
+      <c r="D1903" s="10">
+        <v>40.363237318563002</v>
+      </c>
+      <c r="E1903" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1903" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1904" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1904" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1904" s="4">
+        <v>-7.5686406581707004</v>
+      </c>
+      <c r="D1904" s="10">
+        <v>41.113836559379699</v>
+      </c>
+      <c r="E1904" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1904" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1905" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1905" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1905" s="4">
+        <v>-7.7840955487679402</v>
+      </c>
+      <c r="D1905" s="10">
+        <v>41.015194321182499</v>
+      </c>
+      <c r="E1905" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1905" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1906" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1906" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1906" s="4">
+        <v>-7.6651552366641598</v>
+      </c>
+      <c r="D1906" s="10">
+        <v>37.195225314007203</v>
+      </c>
+      <c r="E1906" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1906" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1907" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1907" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1907" s="4">
+        <v>-8.1281656259011292</v>
+      </c>
+      <c r="D1907" s="10">
+        <v>41.731689074247498</v>
+      </c>
+      <c r="E1907" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1907" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1908" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1908" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1908" s="4">
+        <v>-8.3981913746960704</v>
+      </c>
+      <c r="D1908" s="10">
+        <v>39.598324048574703</v>
+      </c>
+      <c r="E1908" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1908" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1909" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1909" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1909" s="4">
+        <v>-8.0851992406200104</v>
+      </c>
+      <c r="D1909" s="10">
+        <v>40.519582393695103</v>
+      </c>
+      <c r="E1909" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1909" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1910" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1910" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1910" s="4">
+        <v>-7.0689238421017002</v>
+      </c>
+      <c r="D1910" s="10">
+        <v>41.179185975559598</v>
+      </c>
+      <c r="E1910" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1910" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1911" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1911" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1911" s="4">
+        <v>-8.5596759451377906</v>
+      </c>
+      <c r="D1911" s="10">
+        <v>39.497878359608002</v>
+      </c>
+      <c r="E1911" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1911" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1912" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1912" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1912" s="4">
+        <v>-9.1770227325037901</v>
+      </c>
+      <c r="D1912" s="10">
+        <v>39.1355872267563</v>
+      </c>
+      <c r="E1912" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1912" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1913" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1913" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1913" s="4">
+        <v>-7.3613600154519299</v>
+      </c>
+      <c r="D1913" s="10">
+        <v>40.7816977292795</v>
+      </c>
+      <c r="E1913" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1913" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1914" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1914" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1914" s="4">
+        <v>-8.5587957207059109</v>
+      </c>
+      <c r="D1914" s="10">
+        <v>41.329535549936999</v>
+      </c>
+      <c r="E1914" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1914" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1915" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1915" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1915" s="4">
+        <v>-8.7010400232609992</v>
+      </c>
+      <c r="D1915" s="10">
+        <v>40.545380574482699</v>
+      </c>
+      <c r="E1915" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1915" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1916" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1916" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1916" s="4">
+        <v>-8.3938800918533794</v>
+      </c>
+      <c r="D1916" s="10">
+        <v>40.815821036550801</v>
+      </c>
+      <c r="E1916" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1916" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1917" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1917" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C1917" s="4">
+        <v>-8.6443825994148504</v>
+      </c>
+      <c r="D1917" s="10">
+        <v>42.018187937881997</v>
+      </c>
+      <c r="E1917" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1917" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1918" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1918" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1918" s="4">
+        <v>-8.5493185067715505</v>
+      </c>
+      <c r="D1918" s="10">
+        <v>41.216019867702698</v>
+      </c>
+      <c r="E1918" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1918" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1919" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1919" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1919" s="4">
+        <v>-7.3047863090018099</v>
+      </c>
+      <c r="D1919" s="10">
+        <v>41.600577816625403</v>
+      </c>
+      <c r="E1919" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1919" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1920" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1920" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1920" s="4">
+        <v>-8.4771656456017102</v>
+      </c>
+      <c r="D1920" s="10">
+        <v>38.679306974978701</v>
+      </c>
+      <c r="E1920" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1920" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1921" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1921" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C1921" s="4">
+        <v>-7.9999458449950902</v>
+      </c>
+      <c r="D1921" s="10">
+        <v>38.340209984207</v>
+      </c>
+      <c r="E1921" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1921" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1922" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1922" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1922" s="4">
+        <v>-8.8165199239871193</v>
+      </c>
+      <c r="D1922" s="10">
+        <v>41.703881812905301</v>
+      </c>
+      <c r="E1922" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1922" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1923" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1923" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1923" s="4">
+        <v>-7.7845004117466701</v>
+      </c>
+      <c r="D1923" s="10">
+        <v>38.2181400443475</v>
+      </c>
+      <c r="E1923" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1923" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1924" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1924" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1924" s="4">
+        <v>-8.1507322581987403</v>
+      </c>
+      <c r="D1924" s="10">
+        <v>41.621424287096801</v>
+      </c>
+      <c r="E1924" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1924" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1925" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1925" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1925" s="4">
+        <v>-8.1469385342011407</v>
+      </c>
+      <c r="D1925" s="10">
+        <v>39.6684201016283</v>
+      </c>
+      <c r="E1925" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1925" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1926" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1926" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1926" s="4">
+        <v>-8.9160895517341192</v>
+      </c>
+      <c r="D1926" s="10">
+        <v>37.014702253437001</v>
+      </c>
+      <c r="E1926" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1926" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1927" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1927" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1927" s="4">
+        <v>-8.7457142997280304</v>
+      </c>
+      <c r="D1927" s="10">
+        <v>41.359468449624799</v>
+      </c>
+      <c r="E1927" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1927" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1928" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1928" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1928" s="4">
+        <v>-7.1335904274604296</v>
+      </c>
+      <c r="D1928" s="10">
+        <v>41.280008586463197</v>
+      </c>
+      <c r="E1928" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1928" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1929" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1929" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1929" s="4">
+        <v>-9.0595730460637398</v>
+      </c>
+      <c r="D1929" s="10">
+        <v>38.865665589323299</v>
+      </c>
+      <c r="E1929" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1929" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1930" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1930" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1930" s="4">
+        <v>-8.4286637992706801</v>
+      </c>
+      <c r="D1930" s="10">
+        <v>39.467655496247502</v>
+      </c>
+      <c r="E1930" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1930" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1931" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1931" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1931" s="4">
+        <v>-8.7346710640078395</v>
+      </c>
+      <c r="D1931" s="10">
+        <v>41.944829812427699</v>
+      </c>
+      <c r="E1931" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1931" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1932" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1932" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1932" s="4">
+        <v>-8.5309146045457194</v>
+      </c>
+      <c r="D1932" s="10">
+        <v>41.398780119379197</v>
+      </c>
+      <c r="E1932" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1932" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1933" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1933" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1933" s="4">
+        <v>-7.1488611084069902</v>
+      </c>
+      <c r="D1933" s="10">
+        <v>41.102233885436398</v>
+      </c>
+      <c r="E1933" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1933" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1934" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1934" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1934" s="4">
+        <v>-8.6111049129904007</v>
+      </c>
+      <c r="D1934" s="10">
+        <v>41.107184289019202</v>
+      </c>
+      <c r="E1934" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1934" s="6">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1935" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1935" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1935" s="4">
+        <v>-7.7454525875984199</v>
+      </c>
+      <c r="D1935" s="10">
+        <v>40.848820734037801</v>
+      </c>
+      <c r="E1935" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1935" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1936" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1936" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1936" s="4">
+        <v>-8.2595493940296194</v>
+      </c>
+      <c r="D1936" s="10">
+        <v>40.204872326194298</v>
+      </c>
+      <c r="E1936" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1936" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1937" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1937" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1937" s="4">
+        <v>-7.63004585657551</v>
+      </c>
+      <c r="D1937" s="10">
+        <v>41.502313102390403</v>
+      </c>
+      <c r="E1937" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1937" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1938" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1938" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1938" s="4">
+        <v>-7.7400082002027304</v>
+      </c>
+      <c r="D1938" s="10">
+        <v>41.302671871192203</v>
+      </c>
+      <c r="E1938" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1938" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1939" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1939" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1939" s="4">
+        <v>-7.4221035725676803</v>
+      </c>
+      <c r="D1939" s="10">
+        <v>37.188246355255302</v>
+      </c>
+      <c r="E1939" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1939" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1940" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1940" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1940" s="4">
+        <v>-7.6787055646413496</v>
+      </c>
+      <c r="D1940" s="10">
+        <v>39.682066225399701</v>
+      </c>
+      <c r="E1940" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1940" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1941" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1941" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1941" s="4">
+        <v>-8.4406025207528792</v>
+      </c>
+      <c r="D1941" s="10">
+        <v>41.647592452474001</v>
+      </c>
+      <c r="E1941" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1941" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1942" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1942" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1942" s="4">
+        <v>-7.4050519241546899</v>
+      </c>
+      <c r="D1942" s="10">
+        <v>38.772219236307102</v>
+      </c>
+      <c r="E1942" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1942" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1943" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1943" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1943" s="4">
+        <v>-6.5209365197706202</v>
+      </c>
+      <c r="D1943" s="10">
+        <v>41.582023089350102</v>
+      </c>
+      <c r="E1943" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1943" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1944" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1944" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1944" s="4">
+        <v>-7.0145129111792004</v>
+      </c>
+      <c r="D1944" s="10">
+        <v>41.82428434781</v>
+      </c>
+      <c r="E1944" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1944" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1945" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1945" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1945" s="4">
+        <v>-7.9083735183957096</v>
+      </c>
+      <c r="D1945" s="10">
+        <v>40.661514034353402</v>
+      </c>
+      <c r="E1945" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1945" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1946" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1946" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1946" s="4">
+        <v>-8.2702041437173399</v>
+      </c>
+      <c r="D1946" s="10">
+        <v>41.382765464286699</v>
+      </c>
+      <c r="E1946" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1946" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1947" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1947" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1947" s="4">
+        <v>-8.1238363809042706</v>
+      </c>
+      <c r="D1947" s="10">
+        <v>40.713797852987703</v>
+      </c>
+      <c r="E1947" s="14">
+        <v>43920</v>
+      </c>
+      <c r="F1947" s="6">
         <v>0</v>
       </c>
     </row>
